--- a/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
+++ b/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\new\Ehsas-Hub\ML Model\2nd Part Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FB7D31-4FA0-4D6D-BDBF-22B168989C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133F3F94-B23A-45D9-BB65-0242DCF65B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87AFE964-4F10-413A-9090-63B2B28B5407}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11206" uniqueCount="8056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11218" uniqueCount="8068">
   <si>
     <t>bookId</t>
   </si>
@@ -24188,6 +24188,42 @@
   </si>
   <si>
     <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1387702085i/166195.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51DHbeTPf2L._AC_UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61biXaIiAGL._AC_UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://pucit.edu.pk/wp-content/uploads/2022/09/unnamed-2-4.png</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRGk3_mZV7rDreLpye6gKWlquuZT9EFP40DHg&amp;s</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/f~8AAOSwwk5ln2if/s-l1200.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1622294452i/58193465.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1481675986i/24582662.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1546285613i/43190851.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQtkqaapYcp3jYyh2E37foPXEIq-rzCzd28Qw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSLeAIbFDTGMlqYW1MD3NCxAGJxeVSkVwHd8w&amp;s</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61RY-8wDpxL._AC_UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/813Bmx4rYCL._AC_UF350,350_QL50_.jpg</t>
   </si>
 </sst>
 </file>
@@ -25045,8 +25081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0026F645-8B82-445D-84B5-CAF19BF66F2F}">
   <dimension ref="A1:G2366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2189" workbookViewId="0">
-      <selection activeCell="M2202" sqref="M2202"/>
+    <sheetView tabSelected="1" topLeftCell="A2184" workbookViewId="0">
+      <selection activeCell="G2200" sqref="G2200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75388,6 +75424,9 @@
       <c r="C2189" t="s">
         <v>7841</v>
       </c>
+      <c r="D2189" t="s">
+        <v>8056</v>
+      </c>
       <c r="E2189" t="s">
         <v>10</v>
       </c>
@@ -75408,6 +75447,9 @@
       <c r="C2190" t="s">
         <v>7842</v>
       </c>
+      <c r="D2190" t="s">
+        <v>8057</v>
+      </c>
       <c r="E2190" t="s">
         <v>10</v>
       </c>
@@ -75428,6 +75470,9 @@
       <c r="C2191" t="s">
         <v>7843</v>
       </c>
+      <c r="D2191" t="s">
+        <v>8058</v>
+      </c>
       <c r="E2191" t="s">
         <v>10</v>
       </c>
@@ -75448,6 +75493,9 @@
       <c r="C2192" t="s">
         <v>7844</v>
       </c>
+      <c r="D2192" t="s">
+        <v>8059</v>
+      </c>
       <c r="E2192" t="s">
         <v>10</v>
       </c>
@@ -75468,6 +75516,9 @@
       <c r="C2193" t="s">
         <v>7845</v>
       </c>
+      <c r="D2193" t="s">
+        <v>8060</v>
+      </c>
       <c r="E2193" t="s">
         <v>10</v>
       </c>
@@ -75488,6 +75539,9 @@
       <c r="C2194" t="s">
         <v>7846</v>
       </c>
+      <c r="D2194" t="s">
+        <v>8061</v>
+      </c>
       <c r="E2194" t="s">
         <v>10</v>
       </c>
@@ -75508,6 +75562,9 @@
       <c r="C2195" t="s">
         <v>7847</v>
       </c>
+      <c r="D2195" t="s">
+        <v>8062</v>
+      </c>
       <c r="E2195" t="s">
         <v>10</v>
       </c>
@@ -75528,6 +75585,9 @@
       <c r="C2196" t="s">
         <v>7848</v>
       </c>
+      <c r="D2196" t="s">
+        <v>8063</v>
+      </c>
       <c r="E2196" t="s">
         <v>10</v>
       </c>
@@ -75548,6 +75608,9 @@
       <c r="C2197" t="s">
         <v>7849</v>
       </c>
+      <c r="D2197" t="s">
+        <v>8064</v>
+      </c>
       <c r="E2197" t="s">
         <v>10</v>
       </c>
@@ -75568,6 +75631,9 @@
       <c r="C2198" t="s">
         <v>7850</v>
       </c>
+      <c r="D2198" t="s">
+        <v>8065</v>
+      </c>
       <c r="E2198" t="s">
         <v>10</v>
       </c>
@@ -75588,6 +75654,9 @@
       <c r="C2199" t="s">
         <v>7851</v>
       </c>
+      <c r="D2199" t="s">
+        <v>8066</v>
+      </c>
       <c r="E2199" t="s">
         <v>10</v>
       </c>
@@ -75607,6 +75676,9 @@
       </c>
       <c r="C2200" t="s">
         <v>7852</v>
+      </c>
+      <c r="D2200" t="s">
+        <v>8067</v>
       </c>
       <c r="E2200" t="s">
         <v>10</v>

--- a/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
+++ b/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\new\Ehsas-Hub\ML Model\2nd Part Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133F3F94-B23A-45D9-BB65-0242DCF65B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CA1E1D-33CD-4783-8883-BC4D26FD50CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87AFE964-4F10-413A-9090-63B2B28B5407}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11218" uniqueCount="8068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11222" uniqueCount="8072">
   <si>
     <t>bookId</t>
   </si>
@@ -24224,6 +24224,18 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/813Bmx4rYCL._AC_UF350,350_QL50_.jpg</t>
+  </si>
+  <si>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/51-xpxmuRoL._AC_UL200_SR200,200_.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRczlpaiIJQTkAMvoWFmOrOuBXL7jKQMXa3wg&amp;s</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81muFuxA1XL._AC_UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51TPn051e9L.jpg</t>
   </si>
 </sst>
 </file>
@@ -25081,8 +25093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0026F645-8B82-445D-84B5-CAF19BF66F2F}">
   <dimension ref="A1:G2366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2184" workbookViewId="0">
-      <selection activeCell="G2200" sqref="G2200"/>
+    <sheetView tabSelected="1" topLeftCell="A2202" workbookViewId="0">
+      <selection activeCell="D2204" sqref="D2204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75700,6 +75712,9 @@
       <c r="C2201" t="s">
         <v>7853</v>
       </c>
+      <c r="D2201" t="s">
+        <v>8068</v>
+      </c>
       <c r="E2201" t="s">
         <v>10</v>
       </c>
@@ -75720,6 +75735,9 @@
       <c r="C2202" t="s">
         <v>7854</v>
       </c>
+      <c r="D2202" t="s">
+        <v>8069</v>
+      </c>
       <c r="E2202" t="s">
         <v>10</v>
       </c>
@@ -75740,6 +75758,9 @@
       <c r="C2203" t="s">
         <v>7855</v>
       </c>
+      <c r="D2203" t="s">
+        <v>8070</v>
+      </c>
       <c r="E2203" t="s">
         <v>10</v>
       </c>
@@ -75759,6 +75780,9 @@
       </c>
       <c r="C2204" t="s">
         <v>7856</v>
+      </c>
+      <c r="D2204" t="s">
+        <v>8071</v>
       </c>
       <c r="E2204" t="s">
         <v>10</v>

--- a/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
+++ b/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\new\Ehsas-Hub\ML Model\2nd Part Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CA1E1D-33CD-4783-8883-BC4D26FD50CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C90F556-066B-4AEF-A031-8AC959F61935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87AFE964-4F10-413A-9090-63B2B28B5407}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11222" uniqueCount="8072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11164" uniqueCount="8036">
   <si>
     <t>bookId</t>
   </si>
@@ -23446,15 +23446,9 @@
     <t>Introduction to the Theory of Computation</t>
   </si>
   <si>
-    <t>Big Data: Principles and Best Practices</t>
-  </si>
-  <si>
     <t>Python Machine Learning</t>
   </si>
   <si>
-    <t>The Elements of Statistical Learning</t>
-  </si>
-  <si>
     <t>Artificial Neural Networks</t>
   </si>
   <si>
@@ -23602,9 +23596,6 @@
     <t>Halsey Royden, Patrick Fitzpatrick</t>
   </si>
   <si>
-    <t>Murat Kantarcioglu</t>
-  </si>
-  <si>
     <t>Sebastian Raschka</t>
   </si>
   <si>
@@ -23635,9 +23626,6 @@
     <t>['Machine Learning', 'Python']</t>
   </si>
   <si>
-    <t>['Data Science', 'Big Data']</t>
-  </si>
-  <si>
     <t>['Computer Science', 'Computation']</t>
   </si>
   <si>
@@ -23734,21 +23722,6 @@
     <t>['Cryptography', 'Cybersecurity']</t>
   </si>
   <si>
-    <t>Inorganic Chemistry</t>
-  </si>
-  <si>
-    <t>Physical Chemistry</t>
-  </si>
-  <si>
-    <t>Analytical Chemistry</t>
-  </si>
-  <si>
-    <t>Biochemistry</t>
-  </si>
-  <si>
-    <t>Environmental Chemistry</t>
-  </si>
-  <si>
     <t>Industrial Chemistry</t>
   </si>
   <si>
@@ -23794,9 +23767,6 @@
     <t>Modern Inorganic Chemistry</t>
   </si>
   <si>
-    <t>Essentials of Physical Chemistry</t>
-  </si>
-  <si>
     <t>Chemical Engineering: An Introduction</t>
   </si>
   <si>
@@ -23815,21 +23785,6 @@
     <t>Electrochemistry</t>
   </si>
   <si>
-    <t>Gary L. Miessler, Paul J. Fischer</t>
-  </si>
-  <si>
-    <t>Peter Atkins, Julio de Paula</t>
-  </si>
-  <si>
-    <t>Gary D. Christian</t>
-  </si>
-  <si>
-    <t>Jeremy M. Berg, John L. Tymoczko</t>
-  </si>
-  <si>
-    <t>Stanley E. Manahan</t>
-  </si>
-  <si>
     <t>B.K. Sharma</t>
   </si>
   <si>
@@ -23875,9 +23830,6 @@
     <t>R.D. Madan</t>
   </si>
   <si>
-    <t>B.S. Bahl, Arun Bahl</t>
-  </si>
-  <si>
     <t>Morton M. Denn</t>
   </si>
   <si>
@@ -23920,27 +23872,6 @@
     <t>Optics</t>
   </si>
   <si>
-    <t>Statistical Physics</t>
-  </si>
-  <si>
-    <t>Solid State Physics</t>
-  </si>
-  <si>
-    <t>Nuclear Physics</t>
-  </si>
-  <si>
-    <t>Astrophysics for Physicists</t>
-  </si>
-  <si>
-    <t>General Relativity</t>
-  </si>
-  <si>
-    <t>Mathematical Methods for Physicists</t>
-  </si>
-  <si>
-    <t>Plasma Physics</t>
-  </si>
-  <si>
     <t>David Halliday, Robert Resnick</t>
   </si>
   <si>
@@ -23965,45 +23896,9 @@
     <t>Eugene Hecht</t>
   </si>
   <si>
-    <t>L.D. Landau, E.M. Lifshitz</t>
-  </si>
-  <si>
-    <t>Neil W. Ashcroft, N. David Mermin</t>
-  </si>
-  <si>
-    <t>Irving Kaplan</t>
-  </si>
-  <si>
-    <t>Arnab Rai Choudhuri</t>
-  </si>
-  <si>
-    <t>Robert M. Wald</t>
-  </si>
-  <si>
-    <t>George B. Arfken, Hans J. Weber</t>
-  </si>
-  <si>
-    <t>Francis F. Chen</t>
-  </si>
-  <si>
-    <t>['Chemistry', 'General']</t>
-  </si>
-  <si>
-    <t>['Chemistry', 'Physical Chemistry']</t>
-  </si>
-  <si>
     <t>['Chemistry', 'Inorganic Chemistry']</t>
   </si>
   <si>
-    <t>['Chemistry', 'Analytical Chemistry']</t>
-  </si>
-  <si>
-    <t>['Chemistry', 'Biochemistry']</t>
-  </si>
-  <si>
-    <t>['Chemistry', 'Environmental Chemistry']</t>
-  </si>
-  <si>
     <t>['Chemistry', 'Industrial Chemistry']</t>
   </si>
   <si>
@@ -24073,27 +23968,6 @@
     <t>['Classics', 'Fiction', 'Historical Fiction', 'Fantasy', 'Feminism', 'Queer', 'Novels', 'Literature', 'British Literature']</t>
   </si>
   <si>
-    <t>['Physics', 'Plasma Physics']</t>
-  </si>
-  <si>
-    <t>['Physics', 'Mathematical Physics']</t>
-  </si>
-  <si>
-    <t>['Physics', 'Relativity']</t>
-  </si>
-  <si>
-    <t>['Physics', 'Astrophysics']</t>
-  </si>
-  <si>
-    <t>['Physics', 'Nuclear Physics']</t>
-  </si>
-  <si>
-    <t>['Physics', 'Solid State Physics']</t>
-  </si>
-  <si>
-    <t>['Physics', 'Statistical Physics']</t>
-  </si>
-  <si>
     <t>['Physics', 'Optics']</t>
   </si>
   <si>
@@ -24236,6 +24110,24 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/51TPn051e9L.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS-P99XtoKbnvhqVBH6VMeQE0aqa4eBURzaWw&amp;s</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEBUQEhIVFRUVFRUVFhgWFRYVFRcVFRUXFhUXFxUYHSggGBolHRcVITEhJSkrLi4uGB8zODMtNygtLi0BCgoKDg0OGhAQGi0lHyUrLS8tLS0tLS0tMi0yKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLS0tLS0tLS0tLf/AABEIAQMAwgMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xABLEAABBAADBAYGBgYIBAcBAAABAAIDEQQSIQUxQVEGEyJhcYEHMpGhscEUQlJy0fAjM2KSsuFDRFN0gqKzwhUk0vEWNDVjg5OjF//EABkBAQEAAwEAAAAAAAAAAAAAAAABAgMEBf/EACgRAQADAAEEAQMEAwEAAAAAAAABAhEDBBIhMYEiMlETM0FhI3GxBf/aAAwDAQACEQMRAD8A4ggjRqKJKARJQUQEaCCBWlDfet8u6kSCMIAlIglEqKCMBEEpQABBHaJACkkIygUCUSNBUJIRUllFSAgEYCMIwqCpCkaOkCaQSqQQRUaCCqDRorRhQGjQpEUAtBAIwECgUaIBGSFFGjTuHwz5P1bHv+41zv4QrPCdGMZJ6mEnPjE5vvcAoKlClrML6Otov/q+TvfJGPcHE+5XGF9EeMd+smgZ4F7z/CExXOkCF1rDeh0f0uMJ+5EG+9zj8Fa4b0TYJvrvnk8Xtb/C0K4jh+VEe9ehsN6O9ms/qwd9973+4mlcYTYGFi/V4aFn3YmA+2kweZ4cK9/qMe77rXO+AVlhuiuNk9TBznxjc3+IBelgwDcAPDRIeFcHlrFYV8T3RyNLXtNOad4PIptaP0itI2pib4vafbG1ZtQBBBEgUgiQQRgEprCSAASTuAFk+AG9EF0X0Kt/5ybT+gseUjfxVRmMB0Mx8urMJJXN4EY/zkK8w/osx7vWMLPGQk/5Wn4rtzQlFqjLHIoPRHL9fFRj7sbnfFwU7DeiGP8ApMW8/cja34ly6dlR0g59F6JsGN8uId/iYPgxTIPRdgBvbK770pH8NLbAJTQgzWE6BbOZuwjHffL5P43FXGF2FhY66vDQtrdliYPfSn0lBUBja0Gg7tEsIrrVDrBz4X7N6IWAjTZmG/z8tdfcUovogUdfd4+5UKQSJnOFZRdmtdABR1/PNIa55O6hm7jbPbofxQPIJksfp2vrknd6vAaDwSWwO4v+vm/w/ZVEhEQmPom+3E2QeR0dm38+HkE9GzK0N5ADXfoojgHpWhrasve2J3+QD5LIrdemRlbTvnBEfe8fJYVYshIIFEgUgk2jQMrovoSH/Ozf3c/6sa52F0X0I/8Anpv7sf8AVjVYuxPdXv8Aci6w1o3h5cfwHtT1I6RTIJq61vUd1osQ15HYIB13ixuNe+k/SVSCE+CQ5qfVm2mroVuI8UbsK4l36Q0RVcj2dRr+yf3iplIwExdRn4MHNZPaDd3At3EXf4J+OIAuIGrjZ9lfnxKcAR0iCLb0QEY5fn8kpQCUgSAlhFSUFQSNBGqCQpGgiE0iIS6REIOJem+OsbC77UFfuvd+K5za6h6d4/02FdzjlHscw/NcuKwn2yBEhaCA0ElGgQujehH/AM/L/dnf6sS52F0T0I/+oS/3Z/8AqxKsXaaR0oWKxhGIjwzdC+OWUuq6ZE6NpAH2iZW+QKZ2ziX4fDPkDi452AOIb2GySMYXEAAEMDi7dw1RVnSUAqfbQfEInROeXmeJhaXlwex7wJLaTWjMz7G7JytMdIWPE8U0WYyRRyyZAf1rGuiEjC26JLXOyk7nV3oL4pqXFxtJDpGNI1ILmggHcSCVQ4I59oRYijU2Fmy2CKjEsBiBB9UuGd9HXUjgpGIwTpMdO3VrJMHFGXZCRpJiMwa49nMA8HW940QXM2IYzLmcBncGt/acdwHfoUozt6wR65i0uAo1lBAJzVW8jjxVbtXC5YoWxixBLC4NzDMWM7JouOpDST30gdow9eJXSsY1sT2dt7Gkl72O0BNiur4/aQSXbSaHtZkeS9z2t0Asx3n9YjTQ6nfwtHjdpCKFkxY/tuiZl0DgZntjbms6UXC/NUu1ekGE6/DPGLw1RvkL/wBPHeV0TmChdk5i3yBTHSLpTgJYerGLhJzxO+u4VHKyQjsNO/LXmmjVwPcbzNDaNDtZr0B5acvJVGE2655j/Rt7c8sDmteXPYInyMMp7OrewL3VmGp408PpD2fHmHWAN3hscUp7RJLiSWNGunDgeaomdNsDHTmOmMrZppWuZE1vZmkL3xOa6TtM17twOhCauOpUjXPZfSrEKDcHOS7RubK3Me6rvePao8npNnMohZs5wkdWVj5HB5vd2erBV7oTHSkFyqD0jY+ebqIMNh+s7Whdfq+tqXtBqju5FRNpdONqMiZMXYfq5CWtfEGSNzN3tvM6iORU7oMdgRFcbHSDaDooZ5NpMibO5zGVFZBY4NfmyxUKJGtrN4rpVjXEg4yYizqHubffQpO4xsfTzF+jwr+T5W+1rT8lyC1bbUxkksZMsskmVzazvc+rDgazE0qlTdUSCBRIDQRIKgBar0e9JmbPxL55I3yB0LowGZQbL2Oslx3dkrKhORDf4IxdTxHpJfipo2QYDNLmqI9e5smZw1ALGjQgagmtNdyrj6TMc93UNjw7czshEjZX6uOUh5c86cCKWc2BiW4dsmJJa6QVHGwSBjxn1fKK1AAGWx/aHkndv4iB+NbiYntDZTHLK0NfUUpyumbq0ZhmzEFt70Gi2ht/acLJJBNhgIJeokELBmjebpv6RnqnKfVJGihv6RY8Milnx8sfXAmMRxRukLA4tLyBkDWWDXaJNHStUx0l29BihOztNrEPmgcyMNbI2Te2dljtjcJNTVjxhSbWgmghjxDJWyQR9Ux8OQh8VktD2vIpzbIsE79yKstkYnE4rEvgOPxTgGzOY5kkg6zqmucKZm0zBu7WrCZ+gTnBz4jEOxbXRviawSOe1rhKSCSHizVcDxCrNh7UbhsQZhG57csjA0vDTUjCztOyHcHHcN9JOA2iIsPPhxHYnMRLs1FvVEuboG66uN/JYqktwEbtnuxJDjI3Eth1cCzK6MyXly3elb1M2NhsNJDiD9HBfBhhLbpJO1IHsa8lrHtpvaNAa7lWx7TIwrsLkblfI2UuObMHNaWitaqid4O9DZu03QCUNawiaMxPzhx7BIJApwrUDXuRVn0Xihn2lHGYWiKTMOrcXOAIhcbDib9dt6k6GlB2s4ERAdR6pLnwMc1tucQGuzAEloZm3DR/mo+zMc/DytmiID23lJaHUSCLo6XRKPE498jQw5A0OLg1kccYzEAEnI0WaAGt7lFaDpFO7AYt0ELWNja1mS2Nd1zXMFyOcRb7JPGhVAClG6FbQlZi8NC17gw4ljnNaSMxcWsOavWFDcdN6r4tuYlsYhbiJQwaBuc9kcmne0dwUCORzTma4tPMEg+0Jpid0gxErpZIpHvd1ckwaHkktzO1onXXK32LUbWw7nbUjx7S04dz8NMZczcgDGx5wTejgWuGXffBYl7iTZJJO8k2fakVxQaHohi2M2nHM9zWRh8pJeQ0BrmPAu/vDRObaxMMuEibG9sToC5roG5ure4n9fE6jZNAEOO4aab83aUCFNManB7ZY3AwQNxHVSMkmc79CZOxLQAsgC9+4rMYoMzuEebJmOTPWbLfZzVpdckMqIRE7gT4BPMnpGxH6t/+E/5v5quVxiMO4RvJa4DLvIIHrBUyziJj2x0ESCCoNEjtEgNOwDWu5IaFa9GxH1xMjqaGOPPW20AElI8yLDbOe/cE3Nhy274OLT4haPG7aIblw7Mg+0aL/Ibm+9VGLwwpmW/Vt178ziSfdSxiL75hlMV/hXBqNShH7U29iaYQEoBE0J+B+VwdQdRujdHxogoHhs+TNlIoiMSmzoIywPzGt3ZI0361v0TsuypmvydW4nSqBIIcLaQeR19icbtFxfnIa64mxOBzEOY1rWgO1u+y03e8KVituyuPYJaKdYdkkJL3Z3drINLqhWlKLiNFsWY72EbqurJdmDdOVtq+FhKbsWXUkAAXRzNt1Au7IJF9lrna1oNOSM7WnJvrDvvc0a2HcubWnyRDaMulyP0AHrEaAEAexzvaU8LhqfZkjKzAdp2UAOBsjeRR3XpfNWTejRcezIMtQkmrsPhjlkLa9bL1raHEXyVa/EPJvO6xdHMbGb1qN6XZ9qX9MkyhuY0A8C6Jp7cjtTr6oA7hupTVxN/8Nu1uWOxvFn7RGnM0MwHEVXcJNjRxtmD5WlzWHJWWswc6q7epPV0eXWDed1QW9yPImmGCEKTul0jLVDDQK0exH3EPEhZ7Kr/YP6s/ePwC7eg/d+HJ1n7Ze3Yz9HlBH1CdRyFrALp/SMh4eQS64zvLCfVI+poNK0XLwtvXffE/0w6X7Zj+xokEFxOkEEEECwpmzx2j4H5KIFM2aO35H5LOn3QxW8QUhkObQaJqNqlQN1XdWrXMmX4PT4KBiI3NNGlZ7Q2k0DI3UjjwH4lU+Yk2Ta4+fs3x7bqbnknKg1aPot0dOIcZJDkhYC57naDKNTryTm0ZgHS9Uzq4Zy3Jp2jHHQugezmIvyrmuSb+W2KM/kI4JxrlbRYfTQgjkdQo2IwjRrq33hTviWfZMIeUcEKKNnMao83FVCLRpxhHEfnxR9SDxTTDaMlK6k80hwI3hDCTSCTaOwiAGAK62D6rvEfBUpIVt0fPrj7vzXZ0E/54+f8Ajm6z9qWg2m2yDnDi5gvW6JG7dp4Lk4XWcU8kRl0mfsih9gA+quUzCnOHJxHsJXV18fb8ubpJ+4hEggvPdg0SCCB0KfsodvyKiAKdsogPJP2TXedKC2UmItGsJXDRQtRMRiSdBoEiSUuPySQ3VZcvPM+K+mVafk1lWi6K9HXYl4sUwbzzTfR7YTsRIBXZ4rYbY2gyBn0ODhpK4c+LAfj7Oa56Vty27a/LbOUjulH6RzgxtwkAHUD1iP6RwPH9kcOe/kqh8YLQK1HeTpv47t9+aW2Y8UAeK9SnBSkREQ5p5LSYZgr9Xsn3FRtoQys9dvnw81cYdqjbZb6rjd7q4Eb/AMFzdR09IrNoht4uW0z2yoPowbrVo48LI9xaxt00u1IFBurjZIUm74K4w+GoNIOuU6agU5xs3xvK3TuXnx3TORGy6piI9qX/AIeedeOnvUeWBzeZ+7r7wtBK5w9Zp8tQqnGSNykggb92ix+qJyYZZWY2JV5xJ7/YD+CXHPz48jSjxB16OOUnXS/Hel4k5KoZr03Ub8lnjXp8yDv8wClEN4gewhHDhT9drmEaUW2dE4+AD63tsLHYZZJkhnJvtP4qfsYAOdVbhuNqvLxeXN53opexRUhFg9n5rr6Kc56uXqvPFZpMWTkjJDtxAsuINHgC0AeAJXLceKmk++/+IrpD3kirNDcOC55tptYiUftn36r0f/Qj6a/Lg6KfM/CEgiRry3eCCCCCWApOG3pmNlJ/Det7fgsp9MYS2N1VvsXZLp3hoGnEqLsrAuldlG69Sum4WBuCgsAGQjsj/ce74rTO2tFa+26MiO63pFxszcFCIIv1zh2iP6Np/wBx4ct/JZZjFJkDnuLjbnOJJJ3knilMhK9jg4a8Vchx8nLN52TIYn2tRhidaxbpYaELVU7UnzyGtzeyPmVaYuXJGTx3DxKo42WvM67k9Uh19LTfqGxi0z4ayt+y1o9jRfvtUmCizPY3m4D2mlq5I7eTzsrDoPumWXWTlYhA6pV21Nn529ljSbF6a1xo81oo8MeIrjuTckfcvRtFbxNZcEWms7DBNwxY7I5uU7wDV0TpuTr8KHAA8x8VYdJGZZ2O5t+B/mo7Ra8Xnr2XmIerw276auh0axRGZrA7llc35kKHjdjYsA5sNL5ML/4bXQuh+JMmHY7iOyedt0+FHzWkazmsp4ae4YTzW9S86OiNlrmkGzvFEEaEUdxtSsC7qzdaVWm9dRZ6OYOsJMjiwh9NcLc1z9x6y9aOu7xXM8dhXQTPgk0cxxaeR5EdxFHzSs247RaP4SYreJrKQ/abRvBHsWO288OxD3Dc7Kfa0LX7MxroJGyMPaaeO4ji0jkVR9PsU2XHPmYKEjI3EcjkAI79RvW63U8nN4tLTHT04vNYZxGiQWDIaCJBFWlKTs+AySNY3eb+CZAWh6F4UPxbAdBTyT3BpKytuTjCvuNbfo5spkMXWuGg3Di48AmMZJJLIXg6nhdADgB3KXttz2uaQexVNaOHO+9MYYg726/neurpuH9OvdPuWrn5e+cj1BrDwhj6PctBitjNkjzM3kDf+KitDRRbv7xYVnhNo5TT25RWvAarO9p3YY0iPUsliMOWOLTvBpARLVbSwsclkEWaq9LVRtLCtiYZCdA29/Hl8FsjmjPLGaTvhlNryW8MG5vxKhgaIB9kuO8lGRS8XlvN7zZ6vFTtrELXYEVzt/ZDnexpr30trs7BCreN+7VZTonESZHgXlaB+8b+S3Wyps4ykAV+d3NdfTbHHM/25ueYnkiJ/CQ7ANacw14gcFTbTgF3VXqr8wOu82l+Sj4vZ5drYd3VS3Uvk+2m9dhzbphDXVO+8PgfxVPFJegrx/Barp5gy2BrqOkg94Kx2HHHvXH1Xm+urpvFMdC9HGNp0kB4gPb4jsu/2+xb9rwuNdGsf1OJikO4OAd913Zd7iu0Bo4KcVvpxOaMtogufelXYVtbjWDVtMlr7N9h3kdPMcl0JNYqFsjHRvFte0tcOYIorOfLXE5Lz6x1hUPSMfpWnnGPc5wWn21s12ExMkDtcp0P2mnVrvYs10k1MZ/ZcPY6/mtdYyWy07CnQQQWxrBBEjQXgb3K46IMJxkbQd+f+ByrAy1bdEIyMdFXEu/03LbX21S6dg8OSe2Aa560lS4Bj7bqHN8PyVMhA0JHihMx7dW0QTofkVu7p1O2FLiKaA1rtfj5cExjJSdDV1qrl+yhIbuj3/yTEmEMNZwDe4j5hba3j5arVn4VuElIIsmgoHTXFMDWRRuJzdp2vD6o9tnyVkQNXblisdiOslc/mdPAaD3LV1dsr4/ls6au2/0EXC0tz70SQT5oiV5T1IbroHs7PA911cmneGj+ZWpZsijZdr+eKidCIxHg4wdMwLv3itK2l2UtNaxDi5IibTKFFEWNrU+OqdhPDcVIpABJlGX9ImEDtnSmtWmN3/6NB9xK5DAV3LpZDmwOIb/7Tz5tGYfBcMi5LRyN/DKdC612Toti+uwkT77Qbkd95nZPtoHzXGcO3jS6D6NMb+tgJ5SN/hd/sWHHOWZ80bVuiESalJG7VNkk60R4Lpxysf6Udh9bAMSwduH1u+M7/YdfAlcR279T/F8l6dlLXAtcLBFEHcQdCF569IWyDhpjH9XPbDzY4GvZVeSmeWUT4ZJBBGAiCRo0SDRMZSt+i7KxkTjuBd46scFFfEp2wAfpMfif4StrU6R9OjIGrh30lx7XiGjia8Dqk7HwjHsla8Czkaw69lzy4A+3Kh/wiMwtY4iOTPHne4nsiRr3BtbrprOWp3qd8ssSpNuYbSnGx+y5TsLNHiWdntBpo2COF6LIbWYGv6tsRjyadrV7v2nHdrwrTxV90MY8xyFjc1OHGuCkWnVmEPp3BHBhbZo+R2QC+FW4+zTzC5vHvXRelvRvHYqVpbG3IxtNuRo1OrjXsHkqSP0fY77Mff8ApAtfL3Wlt4u2sM4Ciy2QOJK1Y9H+M5Rj/H/JSMB6P8S2Zj3mLK1zSaeSaBs6ZVq7J/Dd+pH5XkDnMaGtJAaA32ClYQbTcN/u/BSZNjHgQOdn+SQNjO+033/gu7a5jh+rdT4MaHD8hOiYKuGyHfaHvT8eAcPr+4/itc1hlspGMbnikZ9pjm+1pC8+M9YL0NDCRvdfl/NYb/8AmDLJ+ku3k6Rj/qWq9Zn028doj2wsB0KtOjmOMGJjl3DNld912h/HyWuj9G0Y/rD/ANwfilu9HUZ/rD/3W/itUcdolunkrMYvPp5+01OSY9tWSPagzYgAALyaAF0Ne9IdsJv2z7AuzKuPyj4nFg7nV8VzP0txF2GjkNEtlAuqNOa750unu2CP7R3sCx/pU2G1mzJHhxcWviOtcXhvzSe3FjdcMASw1G1qBWpkKkEaCDZ4cZtHclbbEwVzx5WkkHQDXSjenFVzmUaO8LQ+j+Q/8Tw7S13rOojdpG86+9bGpoGBzbGR1GrGrfV1BTeIlLi7MHnMQ51yXZANE6a711eTRRyVhjNyjGyF7WtIdTNG27NQPAaaBan0ft7Eo/ab8CtaUYCYpBCSU45NlUJKJAokARI0kooFAIik9YOJHtCIdCUFH+lMG+Rg8XD8UX0+L+1j/fb+KCUgo4x0X9rH++38UoYlh3Pb+8EDpSCgJAeI9oREoEuWX9JcWbZOKHKMO/dc13yWoIVL0vYH4DFMJ9bDyjzyGlJV5ick2jtJQHmQRIIOmuwltD2jN4bwkw4oigAWuG6tDfceCl4PDOa4sB+AKbxUdEB4477+K2tGpp2xiw0FuIm4erK8e60h+28aCP8AmZq5dY6+9RYQWWCQ5vMJUjQSHWeX55KGj/8AEGNBo4qb/wCx2mvilnbeNBJ+ky+byfio2Ki0scuPdpwQw77FECx4eaYuyfd0ixuU1i5dDz+Vd6S3pTjbr6RJu+171GkbTtRoa3nTduIUAsp3O93CvFMXVjiOkmMP9al56PKZxm38U6PMMViARv8A0rxpY7/FVryXGuB8vNOQNGYtJ0I4ndamLqG7b+KO/F4g/wDzSf8AUmX7WxB34iY6cZZPxTEsdPLddDXmN6ZkOpUVK+myOBuV58Xu595TD3W2ybrfZ3pph3n8+KDXi9dyBudsfVivXzHNbeFUKPIJhje4J95F17EzevcgDm2KrQXXd4JhzBvoexOyP1sJhxUUHGtyOPEuBHad+8U2TaSFBPxO05CRUjxQA7LnN3eBTZ2rOQWmeUgiiDI+iDvBF6hRZGEaFJRkO0SMIICQQQQdlnhcTq2nD626/EKRTZ2U5vb4d9K9dh8zd1+ShuwYJ9WiD7fBbWhSO2b3Ua8dO9MwxgOyEXqKIPdS0P0atfIqsnwVd9Hy36IGZ4Bk7PCz5jX8+KgugBJI0sa+zVTZXFtEjQ7+7UJp8WZpr413/gghiPQNomjz7qTcgyvsDc46aaBOZCONHefHgmJQS8G9Kr5eKKgY2PKSa/7Hiq/rO3d1vvlu03Dnp5q62jThR3gA7uXLid6p5GannWvjxUWDGJogOAo8db1VbiN9hT5HUwg89PIblCmbYtRTUL9aKbL96G4+acdH71FOyM7IeBQ3c/8At4KHfaKmRi2lvEcq/PPioT96gRIaTQen5aI71FcEUq0kIgjUUrNe/VEUklGCgBQRIIo0ELQQeohEKGnBM4iMWDXP5IILa0o2IjF7vzqqbEtAca8feEEERHxo7I8D7iFBw+of3EfBBBAw8bzzYPgoeC4eHyH4okEDOL1ko868tVVTD9IRw1+CCCksoVs3wpR8RpoPzqggoqMR2gnm+sfEoIKBOGOjvA/iojR8/mggoon7ky5Ggopt6SUaCLAnIIIIoII0EAQQQQf/2Q==</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61658Rbox0L._AC_UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTKzOAWPp0nEf68h28ErtxViXohzlSUQ1X08w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQBoOYf1lVlzOhY1H2nYIaRg9T50x0cAt6hGg&amp;s</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41unB-F86wL._AC_UF1000,1000_QL80_.jpg</t>
   </si>
 </sst>
 </file>
@@ -25093,14 +24985,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0026F645-8B82-445D-84B5-CAF19BF66F2F}">
   <dimension ref="A1:G2366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2202" workbookViewId="0">
-      <selection activeCell="D2204" sqref="D2204"/>
+    <sheetView tabSelected="1" topLeftCell="A2204" workbookViewId="0">
+      <selection activeCell="I2212" sqref="I2212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
@@ -44278,7 +44171,7 @@
         <v>10</v>
       </c>
       <c r="F834" t="s">
-        <v>8016</v>
+        <v>7981</v>
       </c>
       <c r="G834">
         <v>3.86</v>
@@ -74767,16 +74660,16 @@
         <v>7760</v>
       </c>
       <c r="C2160" t="s">
-        <v>7812</v>
+        <v>7810</v>
       </c>
       <c r="D2160" s="3" t="s">
-        <v>8027</v>
+        <v>7985</v>
       </c>
       <c r="E2160" t="s">
         <v>10</v>
       </c>
       <c r="F2160" t="s">
-        <v>7863</v>
+        <v>7860</v>
       </c>
       <c r="G2160">
         <v>4.7</v>
@@ -74790,16 +74683,16 @@
         <v>7761</v>
       </c>
       <c r="C2161" t="s">
-        <v>7813</v>
+        <v>7811</v>
       </c>
       <c r="D2161" s="3" t="s">
-        <v>8028</v>
+        <v>7986</v>
       </c>
       <c r="E2161" t="s">
         <v>10</v>
       </c>
       <c r="F2161" t="s">
-        <v>7864</v>
+        <v>7861</v>
       </c>
       <c r="G2161">
         <v>4.2</v>
@@ -74813,16 +74706,16 @@
         <v>7762</v>
       </c>
       <c r="C2162" t="s">
-        <v>7814</v>
+        <v>7812</v>
       </c>
       <c r="D2162" s="3" t="s">
-        <v>8030</v>
+        <v>7988</v>
       </c>
       <c r="E2162" t="s">
         <v>10</v>
       </c>
       <c r="F2162" t="s">
-        <v>7865</v>
+        <v>7862</v>
       </c>
       <c r="G2162">
         <v>4.4000000000000004</v>
@@ -74836,16 +74729,16 @@
         <v>7763</v>
       </c>
       <c r="C2163" t="s">
-        <v>7815</v>
+        <v>7813</v>
       </c>
       <c r="D2163" s="3" t="s">
-        <v>8029</v>
+        <v>7987</v>
       </c>
       <c r="E2163" t="s">
         <v>10</v>
       </c>
       <c r="F2163" t="s">
-        <v>7866</v>
+        <v>7863</v>
       </c>
       <c r="G2163">
         <v>4.3</v>
@@ -74859,16 +74752,16 @@
         <v>7764</v>
       </c>
       <c r="C2164" t="s">
-        <v>7816</v>
+        <v>7814</v>
       </c>
       <c r="D2164" t="s">
-        <v>8031</v>
+        <v>7989</v>
       </c>
       <c r="E2164" t="s">
         <v>10</v>
       </c>
       <c r="F2164" t="s">
-        <v>7867</v>
+        <v>7864</v>
       </c>
       <c r="G2164">
         <v>4.3</v>
@@ -74882,16 +74775,16 @@
         <v>7765</v>
       </c>
       <c r="C2165" t="s">
-        <v>7817</v>
+        <v>7815</v>
       </c>
       <c r="D2165" t="s">
-        <v>8032</v>
+        <v>7990</v>
       </c>
       <c r="E2165" t="s">
         <v>10</v>
       </c>
       <c r="F2165" t="s">
-        <v>7903</v>
+        <v>7899</v>
       </c>
       <c r="G2165">
         <v>4</v>
@@ -74905,16 +74798,16 @@
         <v>7766</v>
       </c>
       <c r="C2166" t="s">
-        <v>7818</v>
+        <v>7816</v>
       </c>
       <c r="D2166" t="s">
-        <v>8033</v>
+        <v>7991</v>
       </c>
       <c r="E2166" t="s">
         <v>10</v>
       </c>
       <c r="F2166" t="s">
-        <v>7902</v>
+        <v>7898</v>
       </c>
       <c r="G2166">
         <v>4.4000000000000004</v>
@@ -74928,16 +74821,16 @@
         <v>7767</v>
       </c>
       <c r="C2167" t="s">
-        <v>7819</v>
+        <v>7817</v>
       </c>
       <c r="D2167" t="s">
-        <v>8034</v>
+        <v>7992</v>
       </c>
       <c r="E2167" t="s">
         <v>10</v>
       </c>
       <c r="F2167" t="s">
-        <v>7901</v>
+        <v>7897</v>
       </c>
       <c r="G2167">
         <v>4.5999999999999996</v>
@@ -74951,16 +74844,16 @@
         <v>7768</v>
       </c>
       <c r="C2168" t="s">
-        <v>7820</v>
+        <v>7818</v>
       </c>
       <c r="D2168" t="s">
-        <v>8035</v>
+        <v>7993</v>
       </c>
       <c r="E2168" t="s">
         <v>10</v>
       </c>
       <c r="F2168" t="s">
-        <v>7900</v>
+        <v>7896</v>
       </c>
       <c r="G2168">
         <v>4.4000000000000004</v>
@@ -74974,16 +74867,16 @@
         <v>7769</v>
       </c>
       <c r="C2169" t="s">
-        <v>7821</v>
+        <v>7819</v>
       </c>
       <c r="D2169" t="s">
-        <v>8036</v>
+        <v>7994</v>
       </c>
       <c r="E2169" t="s">
         <v>10</v>
       </c>
       <c r="F2169" t="s">
-        <v>7865</v>
+        <v>7862</v>
       </c>
       <c r="G2169">
         <v>4.3</v>
@@ -74997,16 +74890,16 @@
         <v>7770</v>
       </c>
       <c r="C2170" t="s">
-        <v>7822</v>
+        <v>7820</v>
       </c>
       <c r="D2170" t="s">
-        <v>8037</v>
+        <v>7995</v>
       </c>
       <c r="E2170" t="s">
         <v>10</v>
       </c>
       <c r="F2170" t="s">
-        <v>7899</v>
+        <v>7895</v>
       </c>
       <c r="G2170">
         <v>4.7</v>
@@ -75020,16 +74913,16 @@
         <v>7771</v>
       </c>
       <c r="C2171" t="s">
-        <v>7823</v>
+        <v>7821</v>
       </c>
       <c r="D2171" t="s">
-        <v>8038</v>
+        <v>7996</v>
       </c>
       <c r="E2171" t="s">
         <v>10</v>
       </c>
       <c r="F2171" t="s">
-        <v>7890</v>
+        <v>7886</v>
       </c>
       <c r="G2171">
         <v>4</v>
@@ -75043,16 +74936,16 @@
         <v>7772</v>
       </c>
       <c r="C2172" t="s">
-        <v>7824</v>
+        <v>7822</v>
       </c>
       <c r="D2172" t="s">
-        <v>8039</v>
+        <v>7997</v>
       </c>
       <c r="E2172" t="s">
         <v>10</v>
       </c>
       <c r="F2172" t="s">
-        <v>7898</v>
+        <v>7894</v>
       </c>
       <c r="G2172">
         <v>3.9</v>
@@ -75066,16 +74959,16 @@
         <v>7773</v>
       </c>
       <c r="C2173" t="s">
-        <v>7825</v>
+        <v>7823</v>
       </c>
       <c r="D2173" t="s">
-        <v>8040</v>
+        <v>7998</v>
       </c>
       <c r="E2173" t="s">
         <v>10</v>
       </c>
       <c r="F2173" t="s">
-        <v>7897</v>
+        <v>7893</v>
       </c>
       <c r="G2173">
         <v>4.2</v>
@@ -75089,16 +74982,16 @@
         <v>7774</v>
       </c>
       <c r="C2174" t="s">
-        <v>7826</v>
+        <v>7824</v>
       </c>
       <c r="D2174" t="s">
-        <v>8041</v>
+        <v>7999</v>
       </c>
       <c r="E2174" t="s">
         <v>10</v>
       </c>
       <c r="F2174" t="s">
-        <v>7896</v>
+        <v>7892</v>
       </c>
       <c r="G2174">
         <v>4.3</v>
@@ -75112,16 +75005,16 @@
         <v>7775</v>
       </c>
       <c r="C2175" t="s">
-        <v>7827</v>
+        <v>7825</v>
       </c>
       <c r="D2175" t="s">
-        <v>8042</v>
+        <v>8000</v>
       </c>
       <c r="E2175" t="s">
         <v>10</v>
       </c>
       <c r="F2175" t="s">
-        <v>7878</v>
+        <v>7874</v>
       </c>
       <c r="G2175">
         <v>4.3</v>
@@ -75135,16 +75028,16 @@
         <v>7776</v>
       </c>
       <c r="C2176" t="s">
-        <v>7828</v>
+        <v>7826</v>
       </c>
       <c r="D2176" t="s">
-        <v>8043</v>
+        <v>8001</v>
       </c>
       <c r="E2176" t="s">
         <v>10</v>
       </c>
       <c r="F2176" t="s">
-        <v>7873</v>
+        <v>7869</v>
       </c>
       <c r="G2176">
         <v>4.3</v>
@@ -75158,16 +75051,16 @@
         <v>7777</v>
       </c>
       <c r="C2177" t="s">
-        <v>7829</v>
+        <v>7827</v>
       </c>
       <c r="D2177" t="s">
-        <v>8044</v>
+        <v>8002</v>
       </c>
       <c r="E2177" t="s">
         <v>10</v>
       </c>
       <c r="F2177" t="s">
-        <v>7869</v>
+        <v>7866</v>
       </c>
       <c r="G2177">
         <v>4</v>
@@ -75181,16 +75074,16 @@
         <v>7778</v>
       </c>
       <c r="C2178" t="s">
-        <v>7830</v>
+        <v>7828</v>
       </c>
       <c r="D2178" t="s">
-        <v>8045</v>
+        <v>8003</v>
       </c>
       <c r="E2178" t="s">
         <v>10</v>
       </c>
       <c r="F2178" t="s">
-        <v>7865</v>
+        <v>7862</v>
       </c>
       <c r="G2178">
         <v>4.0999999999999996</v>
@@ -75204,16 +75097,16 @@
         <v>4113</v>
       </c>
       <c r="C2179" t="s">
-        <v>7831</v>
+        <v>7829</v>
       </c>
       <c r="D2179" t="s">
-        <v>8046</v>
+        <v>8004</v>
       </c>
       <c r="E2179" t="s">
         <v>10</v>
       </c>
       <c r="F2179" t="s">
-        <v>7895</v>
+        <v>7891</v>
       </c>
       <c r="G2179">
         <v>4.4000000000000004</v>
@@ -75227,16 +75120,16 @@
         <v>7779</v>
       </c>
       <c r="C2180" t="s">
-        <v>7832</v>
+        <v>7830</v>
       </c>
       <c r="D2180" t="s">
-        <v>8047</v>
+        <v>8005</v>
       </c>
       <c r="E2180" t="s">
         <v>10</v>
       </c>
       <c r="F2180" t="s">
-        <v>7894</v>
+        <v>7890</v>
       </c>
       <c r="G2180">
         <v>4.3</v>
@@ -75250,16 +75143,16 @@
         <v>7780</v>
       </c>
       <c r="C2181" t="s">
-        <v>7833</v>
+        <v>7831</v>
       </c>
       <c r="D2181" t="s">
-        <v>8048</v>
+        <v>8006</v>
       </c>
       <c r="E2181" t="s">
         <v>10</v>
       </c>
       <c r="F2181" t="s">
-        <v>7865</v>
+        <v>7862</v>
       </c>
       <c r="G2181">
         <v>4.2</v>
@@ -75273,16 +75166,16 @@
         <v>7781</v>
       </c>
       <c r="C2182" t="s">
-        <v>7834</v>
+        <v>7832</v>
       </c>
       <c r="D2182" t="s">
-        <v>8049</v>
+        <v>8007</v>
       </c>
       <c r="E2182" t="s">
         <v>10</v>
       </c>
       <c r="F2182" t="s">
-        <v>7867</v>
+        <v>7864</v>
       </c>
       <c r="G2182">
         <v>4.2</v>
@@ -75296,16 +75189,16 @@
         <v>7782</v>
       </c>
       <c r="C2183" t="s">
-        <v>7835</v>
+        <v>7833</v>
       </c>
       <c r="D2183" t="s">
-        <v>8050</v>
+        <v>8008</v>
       </c>
       <c r="E2183" t="s">
         <v>10</v>
       </c>
       <c r="F2183" t="s">
-        <v>7869</v>
+        <v>7866</v>
       </c>
       <c r="G2183">
         <v>4.2</v>
@@ -75319,16 +75212,16 @@
         <v>7783</v>
       </c>
       <c r="C2184" t="s">
-        <v>7836</v>
+        <v>7834</v>
       </c>
       <c r="D2184" t="s">
-        <v>8051</v>
+        <v>8009</v>
       </c>
       <c r="E2184" t="s">
         <v>10</v>
       </c>
       <c r="F2184" t="s">
-        <v>7893</v>
+        <v>7889</v>
       </c>
       <c r="G2184">
         <v>3.9</v>
@@ -75342,16 +75235,16 @@
         <v>7784</v>
       </c>
       <c r="C2185" t="s">
-        <v>7837</v>
+        <v>7835</v>
       </c>
       <c r="D2185" t="s">
-        <v>8052</v>
+        <v>8010</v>
       </c>
       <c r="E2185" t="s">
         <v>10</v>
       </c>
       <c r="F2185" t="s">
-        <v>7863</v>
+        <v>7860</v>
       </c>
       <c r="G2185">
         <v>3.8</v>
@@ -75365,16 +75258,16 @@
         <v>7785</v>
       </c>
       <c r="C2186" t="s">
-        <v>7838</v>
+        <v>7836</v>
       </c>
       <c r="D2186" t="s">
-        <v>8053</v>
+        <v>8011</v>
       </c>
       <c r="E2186" t="s">
         <v>10</v>
       </c>
       <c r="F2186" t="s">
-        <v>7892</v>
+        <v>7888</v>
       </c>
       <c r="G2186">
         <v>3.9</v>
@@ -75388,16 +75281,16 @@
         <v>7786</v>
       </c>
       <c r="C2187" t="s">
-        <v>7839</v>
+        <v>7837</v>
       </c>
       <c r="D2187" t="s">
-        <v>8054</v>
+        <v>8012</v>
       </c>
       <c r="E2187" t="s">
         <v>10</v>
       </c>
       <c r="F2187" t="s">
-        <v>7891</v>
+        <v>7887</v>
       </c>
       <c r="G2187">
         <v>4.5</v>
@@ -75411,16 +75304,16 @@
         <v>7787</v>
       </c>
       <c r="C2188" t="s">
-        <v>7840</v>
+        <v>7838</v>
       </c>
       <c r="D2188" t="s">
-        <v>8055</v>
+        <v>8013</v>
       </c>
       <c r="E2188" t="s">
         <v>10</v>
       </c>
       <c r="F2188" t="s">
-        <v>7890</v>
+        <v>7886</v>
       </c>
       <c r="G2188">
         <v>4.3</v>
@@ -75434,16 +75327,16 @@
         <v>7788</v>
       </c>
       <c r="C2189" t="s">
-        <v>7841</v>
+        <v>7839</v>
       </c>
       <c r="D2189" t="s">
-        <v>8056</v>
+        <v>8014</v>
       </c>
       <c r="E2189" t="s">
         <v>10</v>
       </c>
       <c r="F2189" t="s">
-        <v>7889</v>
+        <v>7885</v>
       </c>
       <c r="G2189">
         <v>4.5999999999999996</v>
@@ -75457,16 +75350,16 @@
         <v>7789</v>
       </c>
       <c r="C2190" t="s">
-        <v>7842</v>
+        <v>7840</v>
       </c>
       <c r="D2190" t="s">
-        <v>8057</v>
+        <v>8015</v>
       </c>
       <c r="E2190" t="s">
         <v>10</v>
       </c>
       <c r="F2190" t="s">
-        <v>7888</v>
+        <v>7884</v>
       </c>
       <c r="G2190">
         <v>4</v>
@@ -75480,16 +75373,16 @@
         <v>7790</v>
       </c>
       <c r="C2191" t="s">
-        <v>7843</v>
+        <v>7841</v>
       </c>
       <c r="D2191" t="s">
-        <v>8058</v>
+        <v>8016</v>
       </c>
       <c r="E2191" t="s">
         <v>10</v>
       </c>
       <c r="F2191" t="s">
-        <v>7887</v>
+        <v>7883</v>
       </c>
       <c r="G2191">
         <v>4.3</v>
@@ -75503,16 +75396,16 @@
         <v>7791</v>
       </c>
       <c r="C2192" t="s">
-        <v>7844</v>
+        <v>7842</v>
       </c>
       <c r="D2192" t="s">
-        <v>8059</v>
+        <v>8017</v>
       </c>
       <c r="E2192" t="s">
         <v>10</v>
       </c>
       <c r="F2192" t="s">
-        <v>7886</v>
+        <v>7882</v>
       </c>
       <c r="G2192">
         <v>4.2</v>
@@ -75526,16 +75419,16 @@
         <v>7792</v>
       </c>
       <c r="C2193" t="s">
-        <v>7845</v>
+        <v>7843</v>
       </c>
       <c r="D2193" t="s">
-        <v>8060</v>
+        <v>8018</v>
       </c>
       <c r="E2193" t="s">
         <v>10</v>
       </c>
       <c r="F2193" t="s">
-        <v>7885</v>
+        <v>7881</v>
       </c>
       <c r="G2193">
         <v>4.5</v>
@@ -75549,16 +75442,16 @@
         <v>7793</v>
       </c>
       <c r="C2194" t="s">
-        <v>7846</v>
+        <v>7844</v>
       </c>
       <c r="D2194" t="s">
-        <v>8061</v>
+        <v>8019</v>
       </c>
       <c r="E2194" t="s">
         <v>10</v>
       </c>
       <c r="F2194" t="s">
-        <v>7884</v>
+        <v>7880</v>
       </c>
       <c r="G2194">
         <v>4.3</v>
@@ -75572,16 +75465,16 @@
         <v>7794</v>
       </c>
       <c r="C2195" t="s">
-        <v>7847</v>
+        <v>7845</v>
       </c>
       <c r="D2195" t="s">
-        <v>8062</v>
+        <v>8020</v>
       </c>
       <c r="E2195" t="s">
         <v>10</v>
       </c>
       <c r="F2195" t="s">
-        <v>7883</v>
+        <v>7879</v>
       </c>
       <c r="G2195">
         <v>4.5</v>
@@ -75595,16 +75488,16 @@
         <v>7795</v>
       </c>
       <c r="C2196" t="s">
-        <v>7848</v>
+        <v>7846</v>
       </c>
       <c r="D2196" t="s">
-        <v>8063</v>
+        <v>8021</v>
       </c>
       <c r="E2196" t="s">
         <v>10</v>
       </c>
       <c r="F2196" t="s">
-        <v>7865</v>
+        <v>7862</v>
       </c>
       <c r="G2196">
         <v>4.0999999999999996</v>
@@ -75618,16 +75511,16 @@
         <v>7796</v>
       </c>
       <c r="C2197" t="s">
-        <v>7849</v>
+        <v>7847</v>
       </c>
       <c r="D2197" t="s">
-        <v>8064</v>
+        <v>8022</v>
       </c>
       <c r="E2197" t="s">
         <v>10</v>
       </c>
       <c r="F2197" t="s">
-        <v>7882</v>
+        <v>7878</v>
       </c>
       <c r="G2197">
         <v>4.0999999999999996</v>
@@ -75641,16 +75534,16 @@
         <v>7797</v>
       </c>
       <c r="C2198" t="s">
-        <v>7850</v>
+        <v>7848</v>
       </c>
       <c r="D2198" t="s">
-        <v>8065</v>
+        <v>8023</v>
       </c>
       <c r="E2198" t="s">
         <v>10</v>
       </c>
       <c r="F2198" t="s">
-        <v>7881</v>
+        <v>7877</v>
       </c>
       <c r="G2198">
         <v>4.2</v>
@@ -75664,16 +75557,16 @@
         <v>7798</v>
       </c>
       <c r="C2199" t="s">
-        <v>7851</v>
+        <v>7849</v>
       </c>
       <c r="D2199" t="s">
-        <v>8066</v>
+        <v>8024</v>
       </c>
       <c r="E2199" t="s">
         <v>10</v>
       </c>
       <c r="F2199" t="s">
-        <v>7880</v>
+        <v>7876</v>
       </c>
       <c r="G2199">
         <v>4.5</v>
@@ -75687,16 +75580,16 @@
         <v>7799</v>
       </c>
       <c r="C2200" t="s">
-        <v>7852</v>
+        <v>7850</v>
       </c>
       <c r="D2200" t="s">
-        <v>8067</v>
+        <v>8025</v>
       </c>
       <c r="E2200" t="s">
         <v>10</v>
       </c>
       <c r="F2200" t="s">
-        <v>7879</v>
+        <v>7875</v>
       </c>
       <c r="G2200">
         <v>4</v>
@@ -75710,16 +75603,16 @@
         <v>7800</v>
       </c>
       <c r="C2201" t="s">
-        <v>7853</v>
+        <v>7851</v>
       </c>
       <c r="D2201" t="s">
-        <v>8068</v>
+        <v>8026</v>
       </c>
       <c r="E2201" t="s">
         <v>10</v>
       </c>
       <c r="F2201" t="s">
-        <v>7878</v>
+        <v>7874</v>
       </c>
       <c r="G2201">
         <v>4</v>
@@ -75733,16 +75626,16 @@
         <v>7801</v>
       </c>
       <c r="C2202" t="s">
-        <v>7854</v>
+        <v>7852</v>
       </c>
       <c r="D2202" t="s">
-        <v>8069</v>
+        <v>8027</v>
       </c>
       <c r="E2202" t="s">
         <v>10</v>
       </c>
       <c r="F2202" t="s">
-        <v>7877</v>
+        <v>7873</v>
       </c>
       <c r="G2202">
         <v>4.2</v>
@@ -75756,16 +75649,16 @@
         <v>7802</v>
       </c>
       <c r="C2203" t="s">
-        <v>7855</v>
+        <v>7853</v>
       </c>
       <c r="D2203" t="s">
-        <v>8070</v>
+        <v>8028</v>
       </c>
       <c r="E2203" t="s">
         <v>10</v>
       </c>
       <c r="F2203" t="s">
-        <v>7876</v>
+        <v>7872</v>
       </c>
       <c r="G2203">
         <v>3.93</v>
@@ -75779,16 +75672,16 @@
         <v>7803</v>
       </c>
       <c r="C2204" t="s">
-        <v>7856</v>
+        <v>7854</v>
       </c>
       <c r="D2204" t="s">
-        <v>8071</v>
+        <v>8029</v>
       </c>
       <c r="E2204" t="s">
         <v>10</v>
       </c>
       <c r="F2204" t="s">
-        <v>7875</v>
+        <v>7871</v>
       </c>
       <c r="G2204">
         <v>4.4000000000000004</v>
@@ -75802,13 +75695,16 @@
         <v>7804</v>
       </c>
       <c r="C2205" t="s">
-        <v>7857</v>
+        <v>7855</v>
+      </c>
+      <c r="D2205" t="s">
+        <v>8030</v>
       </c>
       <c r="E2205" t="s">
         <v>10</v>
       </c>
       <c r="F2205" t="s">
-        <v>7874</v>
+        <v>7870</v>
       </c>
       <c r="G2205">
         <v>4.2</v>
@@ -75822,13 +75718,16 @@
         <v>7805</v>
       </c>
       <c r="C2206" t="s">
-        <v>7858</v>
+        <v>7856</v>
+      </c>
+      <c r="D2206" t="s">
+        <v>8031</v>
       </c>
       <c r="E2206" t="s">
         <v>10</v>
       </c>
       <c r="F2206" t="s">
-        <v>7873</v>
+        <v>7869</v>
       </c>
       <c r="G2206">
         <v>4.7</v>
@@ -75842,13 +75741,16 @@
         <v>7806</v>
       </c>
       <c r="C2207" t="s">
-        <v>7859</v>
+        <v>7857</v>
+      </c>
+      <c r="D2207" t="s">
+        <v>8032</v>
       </c>
       <c r="E2207" t="s">
         <v>10</v>
       </c>
       <c r="F2207" t="s">
-        <v>7867</v>
+        <v>7864</v>
       </c>
       <c r="G2207">
         <v>4.5</v>
@@ -75862,13 +75764,16 @@
         <v>7807</v>
       </c>
       <c r="C2208" t="s">
-        <v>7837</v>
+        <v>7835</v>
+      </c>
+      <c r="D2208" t="s">
+        <v>8033</v>
       </c>
       <c r="E2208" t="s">
         <v>10</v>
       </c>
       <c r="F2208" t="s">
-        <v>7872</v>
+        <v>7868</v>
       </c>
       <c r="G2208">
         <v>4.2</v>
@@ -75882,16 +75787,19 @@
         <v>7808</v>
       </c>
       <c r="C2209" t="s">
-        <v>7860</v>
+        <v>7858</v>
+      </c>
+      <c r="D2209" t="s">
+        <v>8034</v>
       </c>
       <c r="E2209" t="s">
         <v>10</v>
       </c>
       <c r="F2209" t="s">
-        <v>7871</v>
+        <v>7867</v>
       </c>
       <c r="G2209">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="2210" spans="1:7" x14ac:dyDescent="0.25">
@@ -75902,16 +75810,19 @@
         <v>7809</v>
       </c>
       <c r="C2210" t="s">
-        <v>7861</v>
+        <v>7859</v>
+      </c>
+      <c r="D2210" t="s">
+        <v>8035</v>
       </c>
       <c r="E2210" t="s">
         <v>10</v>
       </c>
       <c r="F2210" t="s">
-        <v>7870</v>
+        <v>7865</v>
       </c>
       <c r="G2210">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="2211" spans="1:7" x14ac:dyDescent="0.25">
@@ -75919,19 +75830,19 @@
         <v>2210</v>
       </c>
       <c r="B2211" t="s">
-        <v>7810</v>
+        <v>7900</v>
       </c>
       <c r="C2211" t="s">
-        <v>7835</v>
+        <v>7921</v>
       </c>
       <c r="E2211" t="s">
         <v>10</v>
       </c>
       <c r="F2211" t="s">
-        <v>7869</v>
+        <v>7959</v>
       </c>
       <c r="G2211">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="2212" spans="1:7" x14ac:dyDescent="0.25">
@@ -75939,19 +75850,19 @@
         <v>2211</v>
       </c>
       <c r="B2212" t="s">
-        <v>7811</v>
+        <v>7901</v>
       </c>
       <c r="C2212" t="s">
-        <v>7862</v>
+        <v>7922</v>
       </c>
       <c r="E2212" t="s">
         <v>10</v>
       </c>
       <c r="F2212" t="s">
-        <v>7868</v>
+        <v>7960</v>
       </c>
       <c r="G2212">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="2213" spans="1:7" x14ac:dyDescent="0.25">
@@ -75959,19 +75870,19 @@
         <v>2212</v>
       </c>
       <c r="B2213" t="s">
-        <v>7767</v>
+        <v>7902</v>
       </c>
       <c r="C2213" t="s">
-        <v>7819</v>
+        <v>7923</v>
       </c>
       <c r="E2213" t="s">
         <v>10</v>
       </c>
       <c r="F2213" t="s">
-        <v>7988</v>
+        <v>7961</v>
       </c>
       <c r="G2213">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="2214" spans="1:7" x14ac:dyDescent="0.25">
@@ -75979,16 +75890,16 @@
         <v>2213</v>
       </c>
       <c r="B2214" t="s">
-        <v>7904</v>
+        <v>7903</v>
       </c>
       <c r="C2214" t="s">
-        <v>7931</v>
+        <v>7924</v>
       </c>
       <c r="E2214" t="s">
         <v>10</v>
       </c>
       <c r="F2214" t="s">
-        <v>7990</v>
+        <v>7962</v>
       </c>
       <c r="G2214">
         <v>4.5999999999999996</v>
@@ -75999,19 +75910,19 @@
         <v>2214</v>
       </c>
       <c r="B2215" t="s">
-        <v>7905</v>
+        <v>7904</v>
       </c>
       <c r="C2215" t="s">
-        <v>7932</v>
+        <v>7925</v>
       </c>
       <c r="E2215" t="s">
         <v>10</v>
       </c>
       <c r="F2215" t="s">
-        <v>7989</v>
+        <v>7963</v>
       </c>
       <c r="G2215">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="2216" spans="1:7" x14ac:dyDescent="0.25">
@@ -76019,16 +75930,16 @@
         <v>2215</v>
       </c>
       <c r="B2216" t="s">
-        <v>7906</v>
+        <v>7905</v>
       </c>
       <c r="C2216" t="s">
-        <v>7933</v>
+        <v>7926</v>
       </c>
       <c r="E2216" t="s">
         <v>10</v>
       </c>
       <c r="F2216" t="s">
-        <v>7991</v>
+        <v>7964</v>
       </c>
       <c r="G2216">
         <v>4.5</v>
@@ -76039,19 +75950,19 @@
         <v>2216</v>
       </c>
       <c r="B2217" t="s">
-        <v>7907</v>
+        <v>7906</v>
       </c>
       <c r="C2217" t="s">
-        <v>7934</v>
+        <v>7927</v>
       </c>
       <c r="E2217" t="s">
         <v>10</v>
       </c>
       <c r="F2217" t="s">
-        <v>7992</v>
+        <v>7965</v>
       </c>
       <c r="G2217">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="2218" spans="1:7" x14ac:dyDescent="0.25">
@@ -76059,19 +75970,19 @@
         <v>2217</v>
       </c>
       <c r="B2218" t="s">
-        <v>7908</v>
+        <v>7907</v>
       </c>
       <c r="C2218" t="s">
-        <v>7935</v>
+        <v>7928</v>
       </c>
       <c r="E2218" t="s">
         <v>10</v>
       </c>
       <c r="F2218" t="s">
-        <v>7993</v>
+        <v>7966</v>
       </c>
       <c r="G2218">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="2219" spans="1:7" x14ac:dyDescent="0.25">
@@ -76079,19 +75990,19 @@
         <v>2218</v>
       </c>
       <c r="B2219" t="s">
-        <v>7909</v>
+        <v>7908</v>
       </c>
       <c r="C2219" t="s">
-        <v>7936</v>
+        <v>7929</v>
       </c>
       <c r="E2219" t="s">
         <v>10</v>
       </c>
       <c r="F2219" t="s">
-        <v>7994</v>
+        <v>7967</v>
       </c>
       <c r="G2219">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="2220" spans="1:7" x14ac:dyDescent="0.25">
@@ -76099,16 +76010,16 @@
         <v>2219</v>
       </c>
       <c r="B2220" t="s">
-        <v>7910</v>
+        <v>7909</v>
       </c>
       <c r="C2220" t="s">
-        <v>7937</v>
+        <v>7930</v>
       </c>
       <c r="E2220" t="s">
         <v>10</v>
       </c>
       <c r="F2220" t="s">
-        <v>7995</v>
+        <v>7968</v>
       </c>
       <c r="G2220">
         <v>4.7</v>
@@ -76119,16 +76030,16 @@
         <v>2220</v>
       </c>
       <c r="B2221" t="s">
-        <v>7911</v>
+        <v>7910</v>
       </c>
       <c r="C2221" t="s">
-        <v>7938</v>
+        <v>7931</v>
       </c>
       <c r="E2221" t="s">
         <v>10</v>
       </c>
       <c r="F2221" t="s">
-        <v>7996</v>
+        <v>7969</v>
       </c>
       <c r="G2221">
         <v>4.5</v>
@@ -76139,16 +76050,16 @@
         <v>2221</v>
       </c>
       <c r="B2222" t="s">
-        <v>7912</v>
+        <v>7911</v>
       </c>
       <c r="C2222" t="s">
-        <v>7939</v>
+        <v>7932</v>
       </c>
       <c r="E2222" t="s">
         <v>10</v>
       </c>
       <c r="F2222" t="s">
-        <v>7997</v>
+        <v>7970</v>
       </c>
       <c r="G2222">
         <v>4.5999999999999996</v>
@@ -76159,16 +76070,16 @@
         <v>2222</v>
       </c>
       <c r="B2223" t="s">
-        <v>7913</v>
+        <v>7912</v>
       </c>
       <c r="C2223" t="s">
-        <v>7940</v>
+        <v>7933</v>
       </c>
       <c r="E2223" t="s">
         <v>10</v>
       </c>
       <c r="F2223" t="s">
-        <v>7998</v>
+        <v>7971</v>
       </c>
       <c r="G2223">
         <v>4.3</v>
@@ -76179,19 +76090,19 @@
         <v>2223</v>
       </c>
       <c r="B2224" t="s">
-        <v>7914</v>
+        <v>7913</v>
       </c>
       <c r="C2224" t="s">
-        <v>7941</v>
+        <v>7934</v>
       </c>
       <c r="E2224" t="s">
         <v>10</v>
       </c>
       <c r="F2224" t="s">
-        <v>7999</v>
+        <v>7972</v>
       </c>
       <c r="G2224">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="2225" spans="1:7" x14ac:dyDescent="0.25">
@@ -76199,16 +76110,16 @@
         <v>2224</v>
       </c>
       <c r="B2225" t="s">
-        <v>7915</v>
+        <v>7914</v>
       </c>
       <c r="C2225" t="s">
-        <v>7942</v>
+        <v>7935</v>
       </c>
       <c r="E2225" t="s">
         <v>10</v>
       </c>
       <c r="F2225" t="s">
-        <v>8000</v>
+        <v>7958</v>
       </c>
       <c r="G2225">
         <v>4.4000000000000004</v>
@@ -76219,16 +76130,16 @@
         <v>2225</v>
       </c>
       <c r="B2226" t="s">
-        <v>7916</v>
+        <v>7915</v>
       </c>
       <c r="C2226" t="s">
-        <v>7943</v>
+        <v>7936</v>
       </c>
       <c r="E2226" t="s">
         <v>10</v>
       </c>
       <c r="F2226" t="s">
-        <v>8001</v>
+        <v>7973</v>
       </c>
       <c r="G2226">
         <v>4.5</v>
@@ -76239,19 +76150,19 @@
         <v>2226</v>
       </c>
       <c r="B2227" t="s">
-        <v>7917</v>
+        <v>7916</v>
       </c>
       <c r="C2227" t="s">
-        <v>7944</v>
+        <v>7937</v>
       </c>
       <c r="E2227" t="s">
         <v>10</v>
       </c>
       <c r="F2227" t="s">
-        <v>8002</v>
+        <v>7896</v>
       </c>
       <c r="G2227">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="2228" spans="1:7" x14ac:dyDescent="0.25">
@@ -76259,19 +76170,19 @@
         <v>2227</v>
       </c>
       <c r="B2228" t="s">
-        <v>7918</v>
+        <v>7917</v>
       </c>
       <c r="C2228" t="s">
-        <v>7945</v>
+        <v>7938</v>
       </c>
       <c r="E2228" t="s">
         <v>10</v>
       </c>
       <c r="F2228" t="s">
-        <v>8003</v>
+        <v>7974</v>
       </c>
       <c r="G2228">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="2229" spans="1:7" x14ac:dyDescent="0.25">
@@ -76279,16 +76190,16 @@
         <v>2228</v>
       </c>
       <c r="B2229" t="s">
-        <v>7919</v>
+        <v>7918</v>
       </c>
       <c r="C2229" t="s">
-        <v>7946</v>
+        <v>7939</v>
       </c>
       <c r="E2229" t="s">
         <v>10</v>
       </c>
       <c r="F2229" t="s">
-        <v>8004</v>
+        <v>7975</v>
       </c>
       <c r="G2229">
         <v>4.5</v>
@@ -76299,19 +76210,19 @@
         <v>2229</v>
       </c>
       <c r="B2230" t="s">
-        <v>7920</v>
+        <v>7919</v>
       </c>
       <c r="C2230" t="s">
-        <v>7947</v>
+        <v>7940</v>
       </c>
       <c r="E2230" t="s">
         <v>10</v>
       </c>
       <c r="F2230" t="s">
-        <v>8005</v>
+        <v>7896</v>
       </c>
       <c r="G2230">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="2231" spans="1:7" x14ac:dyDescent="0.25">
@@ -76319,19 +76230,19 @@
         <v>2230</v>
       </c>
       <c r="B2231" t="s">
-        <v>7921</v>
+        <v>7920</v>
       </c>
       <c r="C2231" t="s">
-        <v>7948</v>
+        <v>7941</v>
       </c>
       <c r="E2231" t="s">
         <v>10</v>
       </c>
       <c r="F2231" t="s">
-        <v>8006</v>
+        <v>7976</v>
       </c>
       <c r="G2231">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="2232" spans="1:7" x14ac:dyDescent="0.25">
@@ -76339,16 +76250,16 @@
         <v>2231</v>
       </c>
       <c r="B2232" t="s">
-        <v>7922</v>
+        <v>7942</v>
       </c>
       <c r="C2232" t="s">
-        <v>7949</v>
+        <v>7950</v>
       </c>
       <c r="E2232" t="s">
         <v>10</v>
       </c>
       <c r="F2232" t="s">
-        <v>8007</v>
+        <v>7977</v>
       </c>
       <c r="G2232">
         <v>4.8</v>
@@ -76359,19 +76270,19 @@
         <v>2232</v>
       </c>
       <c r="B2233" t="s">
-        <v>7923</v>
+        <v>7943</v>
       </c>
       <c r="C2233" t="s">
-        <v>7950</v>
+        <v>7951</v>
       </c>
       <c r="E2233" t="s">
         <v>10</v>
       </c>
       <c r="F2233" t="s">
-        <v>7990</v>
+        <v>7977</v>
       </c>
       <c r="G2233">
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="2234" spans="1:7" x14ac:dyDescent="0.25">
@@ -76379,19 +76290,19 @@
         <v>2233</v>
       </c>
       <c r="B2234" t="s">
-        <v>7924</v>
+        <v>7944</v>
       </c>
       <c r="C2234" t="s">
-        <v>7951</v>
+        <v>7952</v>
       </c>
       <c r="E2234" t="s">
         <v>10</v>
       </c>
       <c r="F2234" t="s">
-        <v>7989</v>
+        <v>7978</v>
       </c>
       <c r="G2234">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="2235" spans="1:7" x14ac:dyDescent="0.25">
@@ -76399,19 +76310,19 @@
         <v>2234</v>
       </c>
       <c r="B2235" t="s">
-        <v>7925</v>
+        <v>7945</v>
       </c>
       <c r="C2235" t="s">
-        <v>7952</v>
+        <v>7953</v>
       </c>
       <c r="E2235" t="s">
         <v>10</v>
       </c>
       <c r="F2235" t="s">
-        <v>8008</v>
+        <v>7979</v>
       </c>
       <c r="G2235">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="2236" spans="1:7" x14ac:dyDescent="0.25">
@@ -76419,19 +76330,19 @@
         <v>2235</v>
       </c>
       <c r="B2236" t="s">
-        <v>7926</v>
+        <v>7946</v>
       </c>
       <c r="C2236" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="E2236" t="s">
         <v>10</v>
       </c>
       <c r="F2236" t="s">
-        <v>7900</v>
+        <v>7980</v>
       </c>
       <c r="G2236">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="2237" spans="1:7" x14ac:dyDescent="0.25">
@@ -76439,19 +76350,19 @@
         <v>2236</v>
       </c>
       <c r="B2237" t="s">
-        <v>7927</v>
+        <v>7947</v>
       </c>
       <c r="C2237" t="s">
-        <v>7954</v>
+        <v>7955</v>
       </c>
       <c r="E2237" t="s">
         <v>10</v>
       </c>
       <c r="F2237" t="s">
-        <v>8009</v>
+        <v>7984</v>
       </c>
       <c r="G2237">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="2238" spans="1:7" x14ac:dyDescent="0.25">
@@ -76459,19 +76370,19 @@
         <v>2237</v>
       </c>
       <c r="B2238" t="s">
-        <v>7928</v>
+        <v>7948</v>
       </c>
       <c r="C2238" t="s">
-        <v>7955</v>
+        <v>7956</v>
       </c>
       <c r="E2238" t="s">
         <v>10</v>
       </c>
       <c r="F2238" t="s">
-        <v>8010</v>
+        <v>7983</v>
       </c>
       <c r="G2238">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="2239" spans="1:7" x14ac:dyDescent="0.25">
@@ -76479,342 +76390,70 @@
         <v>2238</v>
       </c>
       <c r="B2239" t="s">
-        <v>7929</v>
+        <v>7949</v>
       </c>
       <c r="C2239" t="s">
-        <v>7956</v>
+        <v>7957</v>
       </c>
       <c r="E2239" t="s">
         <v>10</v>
       </c>
       <c r="F2239" t="s">
-        <v>7900</v>
+        <v>7982</v>
       </c>
       <c r="G2239">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="2240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2240" s="2">
-        <v>2239</v>
-      </c>
-      <c r="B2240" t="s">
-        <v>7930</v>
-      </c>
-      <c r="C2240" t="s">
-        <v>7957</v>
-      </c>
-      <c r="E2240" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2240" t="s">
-        <v>8011</v>
-      </c>
-      <c r="G2240">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="2241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2241" s="2">
-        <v>2240</v>
-      </c>
-      <c r="B2241" t="s">
-        <v>7958</v>
-      </c>
-      <c r="C2241" t="s">
-        <v>7973</v>
-      </c>
-      <c r="E2241" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2241" t="s">
-        <v>8012</v>
-      </c>
-      <c r="G2241">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="2242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2242" s="2">
-        <v>2241</v>
-      </c>
-      <c r="B2242" t="s">
-        <v>7959</v>
-      </c>
-      <c r="C2242" t="s">
-        <v>7974</v>
-      </c>
-      <c r="E2242" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2242" t="s">
-        <v>8012</v>
-      </c>
-      <c r="G2242">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="2243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2243" s="2">
-        <v>2242</v>
-      </c>
-      <c r="B2243" t="s">
-        <v>7960</v>
-      </c>
-      <c r="C2243" t="s">
-        <v>7975</v>
-      </c>
-      <c r="E2243" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2243" t="s">
-        <v>8013</v>
-      </c>
-      <c r="G2243">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="2244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2244" s="2">
-        <v>2243</v>
-      </c>
-      <c r="B2244" t="s">
-        <v>7961</v>
-      </c>
-      <c r="C2244" t="s">
-        <v>7976</v>
-      </c>
-      <c r="E2244" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2244" t="s">
-        <v>8014</v>
-      </c>
-      <c r="G2244">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="2245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2245" s="2">
-        <v>2244</v>
-      </c>
-      <c r="B2245" t="s">
-        <v>7962</v>
-      </c>
-      <c r="C2245" t="s">
-        <v>7977</v>
-      </c>
-      <c r="E2245" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2245" t="s">
-        <v>8015</v>
-      </c>
-      <c r="G2245">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="2246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2246" s="2">
-        <v>2245</v>
-      </c>
-      <c r="B2246" t="s">
-        <v>7963</v>
-      </c>
-      <c r="C2246" t="s">
-        <v>7978</v>
-      </c>
-      <c r="E2246" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2246" t="s">
-        <v>8026</v>
-      </c>
-      <c r="G2246">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="2247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2247" s="2">
-        <v>2246</v>
-      </c>
-      <c r="B2247" t="s">
-        <v>7964</v>
-      </c>
-      <c r="C2247" t="s">
-        <v>7979</v>
-      </c>
-      <c r="E2247" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2247" t="s">
-        <v>8025</v>
-      </c>
-      <c r="G2247">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="2248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2248" s="2">
-        <v>2247</v>
-      </c>
-      <c r="B2248" t="s">
-        <v>7965</v>
-      </c>
-      <c r="C2248" t="s">
-        <v>7980</v>
-      </c>
-      <c r="E2248" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2248" t="s">
-        <v>8024</v>
-      </c>
-      <c r="G2248">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="2249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2249" s="2">
-        <v>2248</v>
-      </c>
-      <c r="B2249" t="s">
-        <v>7966</v>
-      </c>
-      <c r="C2249" t="s">
-        <v>7981</v>
-      </c>
-      <c r="E2249" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2249" t="s">
-        <v>8023</v>
-      </c>
-      <c r="G2249">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="2250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2250" s="2">
-        <v>2249</v>
-      </c>
-      <c r="B2250" t="s">
-        <v>7967</v>
-      </c>
-      <c r="C2250" t="s">
-        <v>7982</v>
-      </c>
-      <c r="E2250" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2250" t="s">
-        <v>8022</v>
-      </c>
-      <c r="G2250">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="2251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2251" s="2">
-        <v>2250</v>
-      </c>
-      <c r="B2251" t="s">
-        <v>7968</v>
-      </c>
-      <c r="C2251" t="s">
-        <v>7983</v>
-      </c>
-      <c r="E2251" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2251" t="s">
-        <v>8021</v>
-      </c>
-      <c r="G2251">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="2252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2252" s="2">
-        <v>2251</v>
-      </c>
-      <c r="B2252" t="s">
-        <v>7969</v>
-      </c>
-      <c r="C2252" t="s">
-        <v>7984</v>
-      </c>
-      <c r="E2252" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2252" t="s">
-        <v>8020</v>
-      </c>
-      <c r="G2252">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="2253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2253" s="2">
-        <v>2252</v>
-      </c>
-      <c r="B2253" t="s">
-        <v>7970</v>
-      </c>
-      <c r="C2253" t="s">
-        <v>7985</v>
-      </c>
-      <c r="E2253" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2253" t="s">
-        <v>8019</v>
-      </c>
-      <c r="G2253">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="2254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2254" s="2">
-        <v>2253</v>
-      </c>
-      <c r="B2254" t="s">
-        <v>7971</v>
-      </c>
-      <c r="C2254" t="s">
-        <v>7986</v>
-      </c>
-      <c r="E2254" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2254" t="s">
-        <v>8018</v>
-      </c>
-      <c r="G2254">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="2255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2255" s="2">
-        <v>2254</v>
-      </c>
-      <c r="B2255" t="s">
-        <v>7972</v>
-      </c>
-      <c r="C2255" t="s">
-        <v>7987</v>
-      </c>
-      <c r="E2255" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2255" t="s">
-        <v>8017</v>
-      </c>
-      <c r="G2255">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="2256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2240" s="2"/>
+    </row>
+    <row r="2241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2241" s="2"/>
+    </row>
+    <row r="2242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2242" s="2"/>
+    </row>
+    <row r="2243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2243" s="2"/>
+    </row>
+    <row r="2244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2244" s="2"/>
+    </row>
+    <row r="2245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2245" s="2"/>
+    </row>
+    <row r="2246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2246" s="2"/>
+    </row>
+    <row r="2247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2247" s="2"/>
+    </row>
+    <row r="2248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2248" s="2"/>
+    </row>
+    <row r="2249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2249" s="2"/>
+    </row>
+    <row r="2250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2250" s="2"/>
+    </row>
+    <row r="2251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2251" s="2"/>
+    </row>
+    <row r="2252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2252" s="2"/>
+    </row>
+    <row r="2253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2253" s="2"/>
+    </row>
+    <row r="2254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2254" s="2"/>
+    </row>
+    <row r="2255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2255" s="2"/>
+    </row>
+    <row r="2256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2256" s="2"/>
     </row>
     <row r="2257" spans="1:1" x14ac:dyDescent="0.25">

--- a/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
+++ b/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\new\Ehsas-Hub\ML Model\2nd Part Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C90F556-066B-4AEF-A031-8AC959F61935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E495323A-D36C-438A-9877-350D244BCD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87AFE964-4F10-413A-9090-63B2B28B5407}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11164" uniqueCount="8036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11143" uniqueCount="8027">
   <si>
     <t>bookId</t>
   </si>
@@ -23758,33 +23758,9 @@
     <t>Chemical Kinetics and Dynamics</t>
   </si>
   <si>
-    <t>Colloidal Chemistry</t>
-  </si>
-  <si>
-    <t>General Chemistry</t>
-  </si>
-  <si>
-    <t>Modern Inorganic Chemistry</t>
-  </si>
-  <si>
-    <t>Chemical Engineering: An Introduction</t>
-  </si>
-  <si>
-    <t>Organic Reaction Mechanisms</t>
-  </si>
-  <si>
     <t>Applied Chemistry</t>
   </si>
   <si>
-    <t>Surface Chemistry</t>
-  </si>
-  <si>
-    <t>Advanced Organic Chemistry</t>
-  </si>
-  <si>
-    <t>Electrochemistry</t>
-  </si>
-  <si>
     <t>B.K. Sharma</t>
   </si>
   <si>
@@ -23821,33 +23797,9 @@
     <t>Jeffrey I. Steinfeld</t>
   </si>
   <si>
-    <t>Jens Th. Berg</t>
-  </si>
-  <si>
-    <t>Linus Pauling</t>
-  </si>
-  <si>
-    <t>R.D. Madan</t>
-  </si>
-  <si>
-    <t>Morton M. Denn</t>
-  </si>
-  <si>
-    <t>V.K. Ahluwalia</t>
-  </si>
-  <si>
     <t>H.D. Gesser</t>
   </si>
   <si>
-    <t>K. J. Laidler</t>
-  </si>
-  <si>
-    <t>Francis A. Carey, Richard J. Sundberg</t>
-  </si>
-  <si>
-    <t>Carl H. Hamann</t>
-  </si>
-  <si>
     <t>Fundamentals of Physics</t>
   </si>
   <si>
@@ -23866,12 +23818,6 @@
     <t>Thermodynamics</t>
   </si>
   <si>
-    <t>Electrodynamics</t>
-  </si>
-  <si>
-    <t>Optics</t>
-  </si>
-  <si>
     <t>David Halliday, Robert Resnick</t>
   </si>
   <si>
@@ -23890,15 +23836,6 @@
     <t>Enrico Fermi</t>
   </si>
   <si>
-    <t>John David Jackson</t>
-  </si>
-  <si>
-    <t>Eugene Hecht</t>
-  </si>
-  <si>
-    <t>['Chemistry', 'Inorganic Chemistry']</t>
-  </si>
-  <si>
     <t>['Chemistry', 'Industrial Chemistry']</t>
   </si>
   <si>
@@ -23935,24 +23872,9 @@
     <t>['Chemistry', 'Chemical Kinetics']</t>
   </si>
   <si>
-    <t>['Chemistry', 'Colloids']</t>
-  </si>
-  <si>
-    <t>['Chemistry', 'General Chemistry']</t>
-  </si>
-  <si>
-    <t>['Chemistry', 'Chemical Engineering']</t>
-  </si>
-  <si>
     <t>['Chemistry', 'Applied Chemistry']</t>
   </si>
   <si>
-    <t>['Chemistry', 'Surface Chemistry']</t>
-  </si>
-  <si>
-    <t>['Chemistry', 'Electrochemistry']</t>
-  </si>
-  <si>
     <t>['Physics', 'General']</t>
   </si>
   <si>
@@ -23968,12 +23890,6 @@
     <t>['Classics', 'Fiction', 'Historical Fiction', 'Fantasy', 'Feminism', 'Queer', 'Novels', 'Literature', 'British Literature']</t>
   </si>
   <si>
-    <t>['Physics', 'Optics']</t>
-  </si>
-  <si>
-    <t>['Physics', 'Electromagnetism']</t>
-  </si>
-  <si>
     <t>['Physics', 'Thermodynamics']</t>
   </si>
   <si>
@@ -24128,6 +24044,63 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/41unB-F86wL._AC_UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQVkqvUGFE5ierpNmfBwsYnbKkGLXV6EiUcCQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRKQvhYOELAtWURbz-gzMIu5cZdhBvMwWZZtw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRNcgofBadOU_ZjRrliJ5p9Qku2u6Ve5pXy9w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTmficQGRDz5-UoTogeLzUJ2AGlG-htXU4hvg&amp;s</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1348776544i/4927576.jpg</t>
+  </si>
+  <si>
+    <t>https://books.google.com/books/content?id=ZMjkTMwO3NkC&amp;printsec=frontcover&amp;img=1&amp;zoom=1&amp;edge=curl&amp;imgtk=AFLRE73-3wF9mPH4NMgN6jFtAnvoLv7q4VtlKmsQvANBTixBSLNzmNq-4ibhqIq6kBru4v9d0cND5wMWzX-ympeiDl1BWInLcY8QVgNqGrDtudAAZwA7F_zXRbfSqM8xVbOeVIMFkK81</t>
+  </si>
+  <si>
+    <t>https://www.akademika.no/sites/default/files/styles/product_large/public/product_images/978/1/4/3/9/8/4/9781439847909.jpg?itok=GDHlV7dN</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1347712103i/7722282.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRSmsHdTsYU65QAEsLvhuqKItyBLrHXDUdxKg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS64VRIeyo_cEmVbs1peH2vE-0O0A8zGk--CA&amp;s</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/513PUvWaIUL._AC_UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTCLot969PXEASgYyh1NlgRjKhNhPSg9CvcCA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQRtcbScqanTJ4oT95mNUW-FfGm7qyqVpKSAQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1394390746i/7378818.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1613182537i/19793525.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRzKzRNeAhf4KhJnbagZZgnNdEV8o_EGhi2JQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61HBnuFYo-L.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1315624805i/1221180.jpg</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388209650i/183425.jpg</t>
   </si>
 </sst>
 </file>
@@ -24985,8 +24958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0026F645-8B82-445D-84B5-CAF19BF66F2F}">
   <dimension ref="A1:G2366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2204" workbookViewId="0">
-      <selection activeCell="I2212" sqref="I2212"/>
+    <sheetView tabSelected="1" topLeftCell="A2217" workbookViewId="0">
+      <selection activeCell="A2232" sqref="A2232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44171,7 +44144,7 @@
         <v>10</v>
       </c>
       <c r="F834" t="s">
-        <v>7981</v>
+        <v>7955</v>
       </c>
       <c r="G834">
         <v>3.86</v>
@@ -74663,7 +74636,7 @@
         <v>7810</v>
       </c>
       <c r="D2160" s="3" t="s">
-        <v>7985</v>
+        <v>7957</v>
       </c>
       <c r="E2160" t="s">
         <v>10</v>
@@ -74686,7 +74659,7 @@
         <v>7811</v>
       </c>
       <c r="D2161" s="3" t="s">
-        <v>7986</v>
+        <v>7958</v>
       </c>
       <c r="E2161" t="s">
         <v>10</v>
@@ -74709,7 +74682,7 @@
         <v>7812</v>
       </c>
       <c r="D2162" s="3" t="s">
-        <v>7988</v>
+        <v>7960</v>
       </c>
       <c r="E2162" t="s">
         <v>10</v>
@@ -74732,7 +74705,7 @@
         <v>7813</v>
       </c>
       <c r="D2163" s="3" t="s">
-        <v>7987</v>
+        <v>7959</v>
       </c>
       <c r="E2163" t="s">
         <v>10</v>
@@ -74755,7 +74728,7 @@
         <v>7814</v>
       </c>
       <c r="D2164" t="s">
-        <v>7989</v>
+        <v>7961</v>
       </c>
       <c r="E2164" t="s">
         <v>10</v>
@@ -74778,7 +74751,7 @@
         <v>7815</v>
       </c>
       <c r="D2165" t="s">
-        <v>7990</v>
+        <v>7962</v>
       </c>
       <c r="E2165" t="s">
         <v>10</v>
@@ -74801,7 +74774,7 @@
         <v>7816</v>
       </c>
       <c r="D2166" t="s">
-        <v>7991</v>
+        <v>7963</v>
       </c>
       <c r="E2166" t="s">
         <v>10</v>
@@ -74824,7 +74797,7 @@
         <v>7817</v>
       </c>
       <c r="D2167" t="s">
-        <v>7992</v>
+        <v>7964</v>
       </c>
       <c r="E2167" t="s">
         <v>10</v>
@@ -74847,7 +74820,7 @@
         <v>7818</v>
       </c>
       <c r="D2168" t="s">
-        <v>7993</v>
+        <v>7965</v>
       </c>
       <c r="E2168" t="s">
         <v>10</v>
@@ -74870,7 +74843,7 @@
         <v>7819</v>
       </c>
       <c r="D2169" t="s">
-        <v>7994</v>
+        <v>7966</v>
       </c>
       <c r="E2169" t="s">
         <v>10</v>
@@ -74893,7 +74866,7 @@
         <v>7820</v>
       </c>
       <c r="D2170" t="s">
-        <v>7995</v>
+        <v>7967</v>
       </c>
       <c r="E2170" t="s">
         <v>10</v>
@@ -74916,7 +74889,7 @@
         <v>7821</v>
       </c>
       <c r="D2171" t="s">
-        <v>7996</v>
+        <v>7968</v>
       </c>
       <c r="E2171" t="s">
         <v>10</v>
@@ -74939,7 +74912,7 @@
         <v>7822</v>
       </c>
       <c r="D2172" t="s">
-        <v>7997</v>
+        <v>7969</v>
       </c>
       <c r="E2172" t="s">
         <v>10</v>
@@ -74962,7 +74935,7 @@
         <v>7823</v>
       </c>
       <c r="D2173" t="s">
-        <v>7998</v>
+        <v>7970</v>
       </c>
       <c r="E2173" t="s">
         <v>10</v>
@@ -74985,7 +74958,7 @@
         <v>7824</v>
       </c>
       <c r="D2174" t="s">
-        <v>7999</v>
+        <v>7971</v>
       </c>
       <c r="E2174" t="s">
         <v>10</v>
@@ -75008,7 +74981,7 @@
         <v>7825</v>
       </c>
       <c r="D2175" t="s">
-        <v>8000</v>
+        <v>7972</v>
       </c>
       <c r="E2175" t="s">
         <v>10</v>
@@ -75031,7 +75004,7 @@
         <v>7826</v>
       </c>
       <c r="D2176" t="s">
-        <v>8001</v>
+        <v>7973</v>
       </c>
       <c r="E2176" t="s">
         <v>10</v>
@@ -75054,7 +75027,7 @@
         <v>7827</v>
       </c>
       <c r="D2177" t="s">
-        <v>8002</v>
+        <v>7974</v>
       </c>
       <c r="E2177" t="s">
         <v>10</v>
@@ -75077,7 +75050,7 @@
         <v>7828</v>
       </c>
       <c r="D2178" t="s">
-        <v>8003</v>
+        <v>7975</v>
       </c>
       <c r="E2178" t="s">
         <v>10</v>
@@ -75100,7 +75073,7 @@
         <v>7829</v>
       </c>
       <c r="D2179" t="s">
-        <v>8004</v>
+        <v>7976</v>
       </c>
       <c r="E2179" t="s">
         <v>10</v>
@@ -75123,7 +75096,7 @@
         <v>7830</v>
       </c>
       <c r="D2180" t="s">
-        <v>8005</v>
+        <v>7977</v>
       </c>
       <c r="E2180" t="s">
         <v>10</v>
@@ -75146,7 +75119,7 @@
         <v>7831</v>
       </c>
       <c r="D2181" t="s">
-        <v>8006</v>
+        <v>7978</v>
       </c>
       <c r="E2181" t="s">
         <v>10</v>
@@ -75169,7 +75142,7 @@
         <v>7832</v>
       </c>
       <c r="D2182" t="s">
-        <v>8007</v>
+        <v>7979</v>
       </c>
       <c r="E2182" t="s">
         <v>10</v>
@@ -75192,7 +75165,7 @@
         <v>7833</v>
       </c>
       <c r="D2183" t="s">
-        <v>8008</v>
+        <v>7980</v>
       </c>
       <c r="E2183" t="s">
         <v>10</v>
@@ -75215,7 +75188,7 @@
         <v>7834</v>
       </c>
       <c r="D2184" t="s">
-        <v>8009</v>
+        <v>7981</v>
       </c>
       <c r="E2184" t="s">
         <v>10</v>
@@ -75238,7 +75211,7 @@
         <v>7835</v>
       </c>
       <c r="D2185" t="s">
-        <v>8010</v>
+        <v>7982</v>
       </c>
       <c r="E2185" t="s">
         <v>10</v>
@@ -75261,7 +75234,7 @@
         <v>7836</v>
       </c>
       <c r="D2186" t="s">
-        <v>8011</v>
+        <v>7983</v>
       </c>
       <c r="E2186" t="s">
         <v>10</v>
@@ -75284,7 +75257,7 @@
         <v>7837</v>
       </c>
       <c r="D2187" t="s">
-        <v>8012</v>
+        <v>7984</v>
       </c>
       <c r="E2187" t="s">
         <v>10</v>
@@ -75307,7 +75280,7 @@
         <v>7838</v>
       </c>
       <c r="D2188" t="s">
-        <v>8013</v>
+        <v>7985</v>
       </c>
       <c r="E2188" t="s">
         <v>10</v>
@@ -75330,7 +75303,7 @@
         <v>7839</v>
       </c>
       <c r="D2189" t="s">
-        <v>8014</v>
+        <v>7986</v>
       </c>
       <c r="E2189" t="s">
         <v>10</v>
@@ -75353,7 +75326,7 @@
         <v>7840</v>
       </c>
       <c r="D2190" t="s">
-        <v>8015</v>
+        <v>7987</v>
       </c>
       <c r="E2190" t="s">
         <v>10</v>
@@ -75376,7 +75349,7 @@
         <v>7841</v>
       </c>
       <c r="D2191" t="s">
-        <v>8016</v>
+        <v>7988</v>
       </c>
       <c r="E2191" t="s">
         <v>10</v>
@@ -75399,7 +75372,7 @@
         <v>7842</v>
       </c>
       <c r="D2192" t="s">
-        <v>8017</v>
+        <v>7989</v>
       </c>
       <c r="E2192" t="s">
         <v>10</v>
@@ -75422,7 +75395,7 @@
         <v>7843</v>
       </c>
       <c r="D2193" t="s">
-        <v>8018</v>
+        <v>7990</v>
       </c>
       <c r="E2193" t="s">
         <v>10</v>
@@ -75445,7 +75418,7 @@
         <v>7844</v>
       </c>
       <c r="D2194" t="s">
-        <v>8019</v>
+        <v>7991</v>
       </c>
       <c r="E2194" t="s">
         <v>10</v>
@@ -75468,7 +75441,7 @@
         <v>7845</v>
       </c>
       <c r="D2195" t="s">
-        <v>8020</v>
+        <v>7992</v>
       </c>
       <c r="E2195" t="s">
         <v>10</v>
@@ -75491,7 +75464,7 @@
         <v>7846</v>
       </c>
       <c r="D2196" t="s">
-        <v>8021</v>
+        <v>7993</v>
       </c>
       <c r="E2196" t="s">
         <v>10</v>
@@ -75514,7 +75487,7 @@
         <v>7847</v>
       </c>
       <c r="D2197" t="s">
-        <v>8022</v>
+        <v>7994</v>
       </c>
       <c r="E2197" t="s">
         <v>10</v>
@@ -75537,7 +75510,7 @@
         <v>7848</v>
       </c>
       <c r="D2198" t="s">
-        <v>8023</v>
+        <v>7995</v>
       </c>
       <c r="E2198" t="s">
         <v>10</v>
@@ -75560,7 +75533,7 @@
         <v>7849</v>
       </c>
       <c r="D2199" t="s">
-        <v>8024</v>
+        <v>7996</v>
       </c>
       <c r="E2199" t="s">
         <v>10</v>
@@ -75583,7 +75556,7 @@
         <v>7850</v>
       </c>
       <c r="D2200" t="s">
-        <v>8025</v>
+        <v>7997</v>
       </c>
       <c r="E2200" t="s">
         <v>10</v>
@@ -75606,7 +75579,7 @@
         <v>7851</v>
       </c>
       <c r="D2201" t="s">
-        <v>8026</v>
+        <v>7998</v>
       </c>
       <c r="E2201" t="s">
         <v>10</v>
@@ -75629,7 +75602,7 @@
         <v>7852</v>
       </c>
       <c r="D2202" t="s">
-        <v>8027</v>
+        <v>7999</v>
       </c>
       <c r="E2202" t="s">
         <v>10</v>
@@ -75652,7 +75625,7 @@
         <v>7853</v>
       </c>
       <c r="D2203" t="s">
-        <v>8028</v>
+        <v>8000</v>
       </c>
       <c r="E2203" t="s">
         <v>10</v>
@@ -75675,7 +75648,7 @@
         <v>7854</v>
       </c>
       <c r="D2204" t="s">
-        <v>8029</v>
+        <v>8001</v>
       </c>
       <c r="E2204" t="s">
         <v>10</v>
@@ -75698,7 +75671,7 @@
         <v>7855</v>
       </c>
       <c r="D2205" t="s">
-        <v>8030</v>
+        <v>8002</v>
       </c>
       <c r="E2205" t="s">
         <v>10</v>
@@ -75721,7 +75694,7 @@
         <v>7856</v>
       </c>
       <c r="D2206" t="s">
-        <v>8031</v>
+        <v>8003</v>
       </c>
       <c r="E2206" t="s">
         <v>10</v>
@@ -75744,7 +75717,7 @@
         <v>7857</v>
       </c>
       <c r="D2207" t="s">
-        <v>8032</v>
+        <v>8004</v>
       </c>
       <c r="E2207" t="s">
         <v>10</v>
@@ -75767,7 +75740,7 @@
         <v>7835</v>
       </c>
       <c r="D2208" t="s">
-        <v>8033</v>
+        <v>8005</v>
       </c>
       <c r="E2208" t="s">
         <v>10</v>
@@ -75790,7 +75763,7 @@
         <v>7858</v>
       </c>
       <c r="D2209" t="s">
-        <v>8034</v>
+        <v>8006</v>
       </c>
       <c r="E2209" t="s">
         <v>10</v>
@@ -75813,7 +75786,7 @@
         <v>7859</v>
       </c>
       <c r="D2210" t="s">
-        <v>8035</v>
+        <v>8007</v>
       </c>
       <c r="E2210" t="s">
         <v>10</v>
@@ -75833,13 +75806,16 @@
         <v>7900</v>
       </c>
       <c r="C2211" t="s">
-        <v>7921</v>
+        <v>7913</v>
+      </c>
+      <c r="D2211" t="s">
+        <v>8008</v>
       </c>
       <c r="E2211" t="s">
         <v>10</v>
       </c>
       <c r="F2211" t="s">
-        <v>7959</v>
+        <v>7938</v>
       </c>
       <c r="G2211">
         <v>4.4000000000000004</v>
@@ -75853,13 +75829,16 @@
         <v>7901</v>
       </c>
       <c r="C2212" t="s">
-        <v>7922</v>
+        <v>7914</v>
+      </c>
+      <c r="D2212" t="s">
+        <v>8009</v>
       </c>
       <c r="E2212" t="s">
         <v>10</v>
       </c>
       <c r="F2212" t="s">
-        <v>7960</v>
+        <v>7939</v>
       </c>
       <c r="G2212">
         <v>4.7</v>
@@ -75873,13 +75852,16 @@
         <v>7902</v>
       </c>
       <c r="C2213" t="s">
-        <v>7923</v>
+        <v>7915</v>
+      </c>
+      <c r="D2213" t="s">
+        <v>8010</v>
       </c>
       <c r="E2213" t="s">
         <v>10</v>
       </c>
       <c r="F2213" t="s">
-        <v>7961</v>
+        <v>7940</v>
       </c>
       <c r="G2213">
         <v>4.5</v>
@@ -75893,13 +75875,16 @@
         <v>7903</v>
       </c>
       <c r="C2214" t="s">
-        <v>7924</v>
+        <v>7916</v>
+      </c>
+      <c r="D2214" t="s">
+        <v>8011</v>
       </c>
       <c r="E2214" t="s">
         <v>10</v>
       </c>
       <c r="F2214" t="s">
-        <v>7962</v>
+        <v>7941</v>
       </c>
       <c r="G2214">
         <v>4.5999999999999996</v>
@@ -75913,13 +75898,16 @@
         <v>7904</v>
       </c>
       <c r="C2215" t="s">
-        <v>7925</v>
+        <v>7917</v>
+      </c>
+      <c r="D2215" t="s">
+        <v>8012</v>
       </c>
       <c r="E2215" t="s">
         <v>10</v>
       </c>
       <c r="F2215" t="s">
-        <v>7963</v>
+        <v>7942</v>
       </c>
       <c r="G2215">
         <v>4.3</v>
@@ -75933,13 +75921,16 @@
         <v>7905</v>
       </c>
       <c r="C2216" t="s">
-        <v>7926</v>
+        <v>7918</v>
+      </c>
+      <c r="D2216" t="s">
+        <v>8013</v>
       </c>
       <c r="E2216" t="s">
         <v>10</v>
       </c>
       <c r="F2216" t="s">
-        <v>7964</v>
+        <v>7943</v>
       </c>
       <c r="G2216">
         <v>4.5</v>
@@ -75953,13 +75944,16 @@
         <v>7906</v>
       </c>
       <c r="C2217" t="s">
-        <v>7927</v>
+        <v>7919</v>
+      </c>
+      <c r="D2217" t="s">
+        <v>8014</v>
       </c>
       <c r="E2217" t="s">
         <v>10</v>
       </c>
       <c r="F2217" t="s">
-        <v>7965</v>
+        <v>7944</v>
       </c>
       <c r="G2217">
         <v>4.4000000000000004</v>
@@ -75973,13 +75967,16 @@
         <v>7907</v>
       </c>
       <c r="C2218" t="s">
-        <v>7928</v>
+        <v>7920</v>
+      </c>
+      <c r="D2218" t="s">
+        <v>8015</v>
       </c>
       <c r="E2218" t="s">
         <v>10</v>
       </c>
       <c r="F2218" t="s">
-        <v>7966</v>
+        <v>7945</v>
       </c>
       <c r="G2218">
         <v>4.5</v>
@@ -75993,13 +75990,16 @@
         <v>7908</v>
       </c>
       <c r="C2219" t="s">
-        <v>7929</v>
+        <v>7921</v>
+      </c>
+      <c r="D2219" t="s">
+        <v>8016</v>
       </c>
       <c r="E2219" t="s">
         <v>10</v>
       </c>
       <c r="F2219" t="s">
-        <v>7967</v>
+        <v>7946</v>
       </c>
       <c r="G2219">
         <v>4.5999999999999996</v>
@@ -76013,13 +76013,16 @@
         <v>7909</v>
       </c>
       <c r="C2220" t="s">
-        <v>7930</v>
+        <v>7922</v>
+      </c>
+      <c r="D2220" t="s">
+        <v>8017</v>
       </c>
       <c r="E2220" t="s">
         <v>10</v>
       </c>
       <c r="F2220" t="s">
-        <v>7968</v>
+        <v>7947</v>
       </c>
       <c r="G2220">
         <v>4.7</v>
@@ -76033,13 +76036,16 @@
         <v>7910</v>
       </c>
       <c r="C2221" t="s">
-        <v>7931</v>
+        <v>7923</v>
+      </c>
+      <c r="D2221" t="s">
+        <v>8018</v>
       </c>
       <c r="E2221" t="s">
         <v>10</v>
       </c>
       <c r="F2221" t="s">
-        <v>7969</v>
+        <v>7948</v>
       </c>
       <c r="G2221">
         <v>4.5</v>
@@ -76053,13 +76059,16 @@
         <v>7911</v>
       </c>
       <c r="C2222" t="s">
-        <v>7932</v>
+        <v>7924</v>
+      </c>
+      <c r="D2222" t="s">
+        <v>8019</v>
       </c>
       <c r="E2222" t="s">
         <v>10</v>
       </c>
       <c r="F2222" t="s">
-        <v>7970</v>
+        <v>7949</v>
       </c>
       <c r="G2222">
         <v>4.5999999999999996</v>
@@ -76073,16 +76082,19 @@
         <v>7912</v>
       </c>
       <c r="C2223" t="s">
-        <v>7933</v>
+        <v>7925</v>
+      </c>
+      <c r="D2223" t="s">
+        <v>8020</v>
       </c>
       <c r="E2223" t="s">
         <v>10</v>
       </c>
       <c r="F2223" t="s">
-        <v>7971</v>
+        <v>7950</v>
       </c>
       <c r="G2223">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="2224" spans="1:7" x14ac:dyDescent="0.25">
@@ -76090,16 +76102,19 @@
         <v>2223</v>
       </c>
       <c r="B2224" t="s">
-        <v>7913</v>
+        <v>7926</v>
       </c>
       <c r="C2224" t="s">
-        <v>7934</v>
+        <v>7932</v>
+      </c>
+      <c r="D2224" t="s">
+        <v>8021</v>
       </c>
       <c r="E2224" t="s">
         <v>10</v>
       </c>
       <c r="F2224" t="s">
-        <v>7972</v>
+        <v>7951</v>
       </c>
       <c r="G2224">
         <v>4.8</v>
@@ -76110,19 +76125,22 @@
         <v>2224</v>
       </c>
       <c r="B2225" t="s">
-        <v>7914</v>
+        <v>7927</v>
       </c>
       <c r="C2225" t="s">
-        <v>7935</v>
+        <v>7933</v>
+      </c>
+      <c r="D2225" t="s">
+        <v>8023</v>
       </c>
       <c r="E2225" t="s">
         <v>10</v>
       </c>
       <c r="F2225" t="s">
-        <v>7958</v>
+        <v>7951</v>
       </c>
       <c r="G2225">
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="2226" spans="1:7" x14ac:dyDescent="0.25">
@@ -76130,19 +76148,22 @@
         <v>2225</v>
       </c>
       <c r="B2226" t="s">
-        <v>7915</v>
+        <v>7928</v>
       </c>
       <c r="C2226" t="s">
-        <v>7936</v>
+        <v>7934</v>
+      </c>
+      <c r="D2226" t="s">
+        <v>8022</v>
       </c>
       <c r="E2226" t="s">
         <v>10</v>
       </c>
       <c r="F2226" t="s">
-        <v>7973</v>
+        <v>7952</v>
       </c>
       <c r="G2226">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="2227" spans="1:7" x14ac:dyDescent="0.25">
@@ -76150,19 +76171,22 @@
         <v>2226</v>
       </c>
       <c r="B2227" t="s">
-        <v>7916</v>
+        <v>7929</v>
       </c>
       <c r="C2227" t="s">
-        <v>7937</v>
+        <v>7935</v>
+      </c>
+      <c r="D2227" t="s">
+        <v>8024</v>
       </c>
       <c r="E2227" t="s">
         <v>10</v>
       </c>
       <c r="F2227" t="s">
-        <v>7896</v>
+        <v>7953</v>
       </c>
       <c r="G2227">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="2228" spans="1:7" x14ac:dyDescent="0.25">
@@ -76170,19 +76194,22 @@
         <v>2227</v>
       </c>
       <c r="B2228" t="s">
-        <v>7917</v>
+        <v>7930</v>
       </c>
       <c r="C2228" t="s">
-        <v>7938</v>
+        <v>7936</v>
+      </c>
+      <c r="D2228" t="s">
+        <v>8025</v>
       </c>
       <c r="E2228" t="s">
         <v>10</v>
       </c>
       <c r="F2228" t="s">
-        <v>7974</v>
+        <v>7954</v>
       </c>
       <c r="G2228">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="2229" spans="1:7" x14ac:dyDescent="0.25">
@@ -76190,220 +76217,53 @@
         <v>2228</v>
       </c>
       <c r="B2229" t="s">
-        <v>7918</v>
+        <v>7931</v>
       </c>
       <c r="C2229" t="s">
-        <v>7939</v>
+        <v>7937</v>
+      </c>
+      <c r="D2229" t="s">
+        <v>8026</v>
       </c>
       <c r="E2229" t="s">
         <v>10</v>
       </c>
       <c r="F2229" t="s">
-        <v>7975</v>
+        <v>7956</v>
       </c>
       <c r="G2229">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="2230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2230" s="2">
-        <v>2229</v>
-      </c>
-      <c r="B2230" t="s">
-        <v>7919</v>
-      </c>
-      <c r="C2230" t="s">
-        <v>7940</v>
-      </c>
-      <c r="E2230" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2230" t="s">
-        <v>7896</v>
-      </c>
-      <c r="G2230">
-        <v>4.8</v>
-      </c>
+      <c r="A2230" s="2"/>
     </row>
     <row r="2231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2231" s="2">
-        <v>2230</v>
-      </c>
-      <c r="B2231" t="s">
-        <v>7920</v>
-      </c>
-      <c r="C2231" t="s">
-        <v>7941</v>
-      </c>
-      <c r="E2231" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2231" t="s">
-        <v>7976</v>
-      </c>
-      <c r="G2231">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="A2231" s="2"/>
     </row>
     <row r="2232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2232" s="2">
-        <v>2231</v>
-      </c>
-      <c r="B2232" t="s">
-        <v>7942</v>
-      </c>
-      <c r="C2232" t="s">
-        <v>7950</v>
-      </c>
-      <c r="E2232" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2232" t="s">
-        <v>7977</v>
-      </c>
-      <c r="G2232">
-        <v>4.8</v>
-      </c>
+      <c r="A2232" s="2"/>
     </row>
     <row r="2233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2233" s="2">
-        <v>2232</v>
-      </c>
-      <c r="B2233" t="s">
-        <v>7943</v>
-      </c>
-      <c r="C2233" t="s">
-        <v>7951</v>
-      </c>
-      <c r="E2233" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2233" t="s">
-        <v>7977</v>
-      </c>
-      <c r="G2233">
-        <v>4.9000000000000004</v>
-      </c>
+      <c r="A2233" s="2"/>
     </row>
     <row r="2234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2234" s="2">
-        <v>2233</v>
-      </c>
-      <c r="B2234" t="s">
-        <v>7944</v>
-      </c>
-      <c r="C2234" t="s">
-        <v>7952</v>
-      </c>
-      <c r="E2234" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2234" t="s">
-        <v>7978</v>
-      </c>
-      <c r="G2234">
-        <v>4.7</v>
-      </c>
+      <c r="A2234" s="2"/>
     </row>
     <row r="2235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2235" s="2">
-        <v>2234</v>
-      </c>
-      <c r="B2235" t="s">
-        <v>7945</v>
-      </c>
-      <c r="C2235" t="s">
-        <v>7953</v>
-      </c>
-      <c r="E2235" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2235" t="s">
-        <v>7979</v>
-      </c>
-      <c r="G2235">
-        <v>4.8</v>
-      </c>
+      <c r="A2235" s="2"/>
     </row>
     <row r="2236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2236" s="2">
-        <v>2235</v>
-      </c>
-      <c r="B2236" t="s">
-        <v>7946</v>
-      </c>
-      <c r="C2236" t="s">
-        <v>7954</v>
-      </c>
-      <c r="E2236" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2236" t="s">
-        <v>7980</v>
-      </c>
-      <c r="G2236">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="A2236" s="2"/>
     </row>
     <row r="2237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2237" s="2">
-        <v>2236</v>
-      </c>
-      <c r="B2237" t="s">
-        <v>7947</v>
-      </c>
-      <c r="C2237" t="s">
-        <v>7955</v>
-      </c>
-      <c r="E2237" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2237" t="s">
-        <v>7984</v>
-      </c>
-      <c r="G2237">
-        <v>4.7</v>
-      </c>
+      <c r="A2237" s="2"/>
     </row>
     <row r="2238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2238" s="2">
-        <v>2237</v>
-      </c>
-      <c r="B2238" t="s">
-        <v>7948</v>
-      </c>
-      <c r="C2238" t="s">
-        <v>7956</v>
-      </c>
-      <c r="E2238" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2238" t="s">
-        <v>7983</v>
-      </c>
-      <c r="G2238">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="A2238" s="2"/>
     </row>
     <row r="2239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2239" s="2">
-        <v>2238</v>
-      </c>
-      <c r="B2239" t="s">
-        <v>7949</v>
-      </c>
-      <c r="C2239" t="s">
-        <v>7957</v>
-      </c>
-      <c r="E2239" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2239" t="s">
-        <v>7982</v>
-      </c>
-      <c r="G2239">
-        <v>4.7</v>
-      </c>
+      <c r="A2239" s="2"/>
     </row>
     <row r="2240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2240" s="2"/>

--- a/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
+++ b/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\new\Ehsas-Hub\ML Model\2nd Part Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E495323A-D36C-438A-9877-350D244BCD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF286129-B23B-48E3-817D-1E47F67F11C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87AFE964-4F10-413A-9090-63B2B28B5407}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11143" uniqueCount="8027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11153" uniqueCount="8034">
   <si>
     <t>bookId</t>
   </si>
@@ -24101,6 +24101,27 @@
   </si>
   <si>
     <t>https://images-na.ssl-images-amazon.com/images/S/compressed.photo.goodreads.com/books/1388209650i/183425.jpg</t>
+  </si>
+  <si>
+    <t>Mathermatics Grade 8</t>
+  </si>
+  <si>
+    <t>Dr. Khalid Mehmood, Dr Saleem Ullah</t>
+  </si>
+  <si>
+    <t>https://www.saleemibookdepot.com/cdn/shop/files/Math8NBFFG_1024x1024.webp?v=1725093054</t>
+  </si>
+  <si>
+    <t>Chemistry Grade 9</t>
+  </si>
+  <si>
+    <t>['Chemistry']</t>
+  </si>
+  <si>
+    <t>Muhammad Iqtadar Ud Din, Tahira Rauf</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQgM5VeMbZuU8tmg63p4fc7bU6dh6LD_5i4Pw&amp;s</t>
   </si>
 </sst>
 </file>
@@ -24959,7 +24980,7 @@
   <dimension ref="A1:G2366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2217" workbookViewId="0">
-      <selection activeCell="A2232" sqref="A2232"/>
+      <selection activeCell="I2235" sqref="I2235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76236,10 +76257,50 @@
       </c>
     </row>
     <row r="2230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2230" s="2"/>
+      <c r="A2230" s="2">
+        <v>2229</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>8027</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>8028</v>
+      </c>
+      <c r="D2230" t="s">
+        <v>8029</v>
+      </c>
+      <c r="E2230" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2230" t="s">
+        <v>4116</v>
+      </c>
+      <c r="G2230">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="2231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2231" s="2"/>
+      <c r="A2231" s="2">
+        <v>2230</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>8030</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>8032</v>
+      </c>
+      <c r="D2231" t="s">
+        <v>8033</v>
+      </c>
+      <c r="E2231" t="s">
+        <v>5126</v>
+      </c>
+      <c r="F2231" t="s">
+        <v>8031</v>
+      </c>
+      <c r="G2231">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="2232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2232" s="2"/>

--- a/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
+++ b/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\new\Ehsas-Hub\ML Model\2nd Part Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF286129-B23B-48E3-817D-1E47F67F11C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1D5BB0-A0B0-41AF-B5E6-385D9F9269BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87AFE964-4F10-413A-9090-63B2B28B5407}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11153" uniqueCount="8034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11163" uniqueCount="8040">
   <si>
     <t>bookId</t>
   </si>
@@ -24122,6 +24122,24 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQgM5VeMbZuU8tmg63p4fc7bU6dh6LD_5i4Pw&amp;s</t>
+  </si>
+  <si>
+    <t>Dr. Muhammad Iqbal, Dr. Muhammad Asghar</t>
+  </si>
+  <si>
+    <t>Chemistry Grade 10</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQo1s5ZAlMyzNxc150nnV0SZdgyPYFgZ8hMaw&amp;s</t>
+  </si>
+  <si>
+    <t>https://studyplusplus.com/_next/image?url=%2F_next%2Fstatic%2Fmedia%2F11-chemistry.556089d2.jpg&amp;w=256&amp;q=75</t>
+  </si>
+  <si>
+    <t>Chemistry Grade 11</t>
+  </si>
+  <si>
+    <t>Prof. Muhammad Iqtidar Ud Din, Prof. Noor Saleem Mahsud, Prof. Azhar Ali Kayani</t>
   </si>
 </sst>
 </file>
@@ -24980,7 +24998,7 @@
   <dimension ref="A1:G2366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2217" workbookViewId="0">
-      <selection activeCell="I2235" sqref="I2235"/>
+      <selection activeCell="C2236" sqref="C2236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76303,10 +76321,50 @@
       </c>
     </row>
     <row r="2232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2232" s="2"/>
+      <c r="A2232" s="2">
+        <v>2231</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>8035</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>8034</v>
+      </c>
+      <c r="D2232" t="s">
+        <v>8036</v>
+      </c>
+      <c r="E2232" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2232" t="s">
+        <v>8031</v>
+      </c>
+      <c r="G2232">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="2233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2233" s="2"/>
+      <c r="A2233" s="2">
+        <v>2232</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>8038</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>8039</v>
+      </c>
+      <c r="D2233" t="s">
+        <v>8037</v>
+      </c>
+      <c r="E2233" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2233" t="s">
+        <v>8031</v>
+      </c>
+      <c r="G2233">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="2234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2234" s="2"/>

--- a/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
+++ b/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\new\Ehsas-Hub\ML Model\2nd Part Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1D5BB0-A0B0-41AF-B5E6-385D9F9269BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95D4C4D-C92C-4F3A-B74F-FA56020DBD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87AFE964-4F10-413A-9090-63B2B28B5407}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11163" uniqueCount="8040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11181" uniqueCount="8050">
   <si>
     <t>bookId</t>
   </si>
@@ -24140,6 +24140,36 @@
   </si>
   <si>
     <t>Prof. Muhammad Iqtidar Ud Din, Prof. Noor Saleem Mahsud, Prof. Azhar Ali Kayani</t>
+  </si>
+  <si>
+    <t>Chemistry Grade 12</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT_vk-OjaTP8yw7_I_TiXYlRr2WqAvTMkQNog&amp;s</t>
+  </si>
+  <si>
+    <t>Prof. Mian Muhammad Usman, Prof. Mian Abdul Hamid</t>
+  </si>
+  <si>
+    <t>Physics Grade 9</t>
+  </si>
+  <si>
+    <t>['Physics']</t>
+  </si>
+  <si>
+    <t>Aamir Ullah Khan, Imran Khaliq, Nazeer A. Malik</t>
+  </si>
+  <si>
+    <t>https://studyplusplus.com/_next/image?url=%2F_next%2Fstatic%2Fmedia%2F9-physics.0c0962b4.jpg&amp;w=256&amp;q=75</t>
+  </si>
+  <si>
+    <t>Naeem Nazeer, Nazir Ahmed Malik, Ajaz Ahmad</t>
+  </si>
+  <si>
+    <t>Physics Grade 11</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQON2Khq8F8J3bAgP-RJgz9ZDwby4W4eeHwyA&amp;s</t>
   </si>
 </sst>
 </file>
@@ -24997,8 +25027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0026F645-8B82-445D-84B5-CAF19BF66F2F}">
   <dimension ref="A1:G2366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2217" workbookViewId="0">
-      <selection activeCell="C2236" sqref="C2236"/>
+    <sheetView tabSelected="1" topLeftCell="A2222" workbookViewId="0">
+      <selection activeCell="H2234" sqref="H2234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76367,22 +76397,91 @@
       </c>
     </row>
     <row r="2234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2234" s="2"/>
+      <c r="A2234" s="2">
+        <v>2233</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>8040</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>8042</v>
+      </c>
+      <c r="D2234" t="s">
+        <v>8041</v>
+      </c>
+      <c r="E2234" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2234" t="s">
+        <v>8031</v>
+      </c>
+      <c r="G2234">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="2235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2235" s="2"/>
+      <c r="A2235" s="2">
+        <v>2234</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>8043</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>8045</v>
+      </c>
+      <c r="D2235" t="s">
+        <v>8046</v>
+      </c>
+      <c r="E2235" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2235" t="s">
+        <v>8044</v>
+      </c>
+      <c r="G2235">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="2236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2236" s="2"/>
+      <c r="A2236" s="2">
+        <v>2235</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>8048</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>8047</v>
+      </c>
+      <c r="D2236" t="s">
+        <v>8049</v>
+      </c>
+      <c r="E2236" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2236" t="s">
+        <v>8044</v>
+      </c>
+      <c r="G2236">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="2237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2237" s="2"/>
+      <c r="E2237" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2238" s="2"/>
+      <c r="E2238" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2239" s="2"/>
+      <c r="E2239" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2240" s="2"/>

--- a/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
+++ b/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\new\Ehsas-Hub\ML Model\2nd Part Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95D4C4D-C92C-4F3A-B74F-FA56020DBD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B67246-B863-46F8-8D19-D39C4E872CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87AFE964-4F10-413A-9090-63B2B28B5407}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11181" uniqueCount="8050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11193" uniqueCount="8060">
   <si>
     <t>bookId</t>
   </si>
@@ -24170,13 +24170,43 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQON2Khq8F8J3bAgP-RJgz9ZDwby4W4eeHwyA&amp;s</t>
+  </si>
+  <si>
+    <t>Urdu Grade 11</t>
+  </si>
+  <si>
+    <t>['Urdu']</t>
+  </si>
+  <si>
+    <t>Prof. Amjad Iqbal, Dr Khalid Iqbal Yasir</t>
+  </si>
+  <si>
+    <t>https://studyplusplus.com/_next/image?url=%2F_next%2Fstatic%2Fmedia%2F11-urdu.5dd4d672.jpg&amp;w=3840&amp;q=75</t>
+  </si>
+  <si>
+    <t>['Biology']</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTnksLvd5WhMSUOMZ-Pi02p2hOFuurqPFwNrA&amp;s</t>
+  </si>
+  <si>
+    <t>Jawaid Mohsin Malik, Ruquaya Malik, Dr. Kashif Malik</t>
+  </si>
+  <si>
+    <t>Biology Grade 9</t>
+  </si>
+  <si>
+    <t>Biology Grade 11</t>
+  </si>
+  <si>
+    <t>https://newbooksnbooks.pk/cdn/shop/files/WhatsAppImage2024-12-11at10.57.44AM_1024x1024.jpg?v=1733897310</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24315,6 +24345,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -25028,7 +25064,7 @@
   <dimension ref="A1:G2366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2222" workbookViewId="0">
-      <selection activeCell="H2234" sqref="H2234"/>
+      <selection activeCell="H2237" sqref="H2237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76466,21 +76502,72 @@
       </c>
     </row>
     <row r="2237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2237" s="2"/>
+      <c r="A2237" s="2">
+        <v>2236</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>8050</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>8052</v>
+      </c>
+      <c r="D2237" t="s">
+        <v>8053</v>
+      </c>
       <c r="E2237" t="s">
         <v>10</v>
       </c>
+      <c r="F2237" t="s">
+        <v>8051</v>
+      </c>
+      <c r="G2237">
+        <v>4</v>
+      </c>
     </row>
     <row r="2238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2238" s="2"/>
+      <c r="A2238" s="2">
+        <v>2237</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>8057</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>8056</v>
+      </c>
+      <c r="D2238" t="s">
+        <v>8055</v>
+      </c>
       <c r="E2238" t="s">
         <v>10</v>
       </c>
+      <c r="F2238" t="s">
+        <v>8054</v>
+      </c>
+      <c r="G2238">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="2239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2239" s="2"/>
+      <c r="A2239" s="2">
+        <v>2238</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>8058</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>8056</v>
+      </c>
+      <c r="D2239" t="s">
+        <v>8059</v>
+      </c>
       <c r="E2239" t="s">
         <v>10</v>
+      </c>
+      <c r="F2239" t="s">
+        <v>8054</v>
+      </c>
+      <c r="G2239">
+        <v>4.3</v>
       </c>
     </row>
     <row r="2240" spans="1:7" x14ac:dyDescent="0.25">
@@ -76865,6 +76952,7 @@
       <c r="A2366" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{E5DAD634-BD32-4358-8A9D-3CFB1C56190F}"/>
     <hyperlink ref="D2160" r:id="rId2" xr:uid="{9A1A5301-65A1-4425-A88C-E3F7FB015D91}"/>

--- a/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
+++ b/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\new\Ehsas-Hub\ML Model\2nd Part Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B67246-B863-46F8-8D19-D39C4E872CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62D557D-F4EA-4D43-B0ED-FEAC2CBAAA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87AFE964-4F10-413A-9090-63B2B28B5407}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11193" uniqueCount="8060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11213" uniqueCount="8074">
   <si>
     <t>bookId</t>
   </si>
@@ -24200,6 +24200,48 @@
   </si>
   <si>
     <t>https://newbooksnbooks.pk/cdn/shop/files/WhatsAppImage2024-12-11at10.57.44AM_1024x1024.jpg?v=1733897310</t>
+  </si>
+  <si>
+    <t>Computer Science Grade 9</t>
+  </si>
+  <si>
+    <t>https://www.saleemibookdepot.com/cdn/shop/files/ComputerScience9NBFFG_1_1024x1024.webp?v=1725715364</t>
+  </si>
+  <si>
+    <t>['Computer']</t>
+  </si>
+  <si>
+    <t>Mr Mohammad Khalid, Dr Saleem Iqbal, Dr Faraz Ahsan, Ms Lubna Kousar</t>
+  </si>
+  <si>
+    <t>Computer Science Grade 11</t>
+  </si>
+  <si>
+    <t>https://shop.nearpeer.org/wp-content/uploads/2024/12/WhatsApp-Image-2024-12-23-at-18.56.42_0c92cbfb.jpg</t>
+  </si>
+  <si>
+    <t>Mr Mohammad Khalid, Dr Saleem Iqbal, Dr Faraz Ahsan, Ms Lubna Kousar, Mr Mohammad Sajjad</t>
+  </si>
+  <si>
+    <t>English Grade 11</t>
+  </si>
+  <si>
+    <t>['English']</t>
+  </si>
+  <si>
+    <t>https://www.saleemibookdepot.com/cdn/shop/files/English11NBFFG_2_1024x1024.webp?v=1725710061</t>
+  </si>
+  <si>
+    <t>Ruhi Zaka, Amber Kashif, Sadia Malik, Iffat Nazeer, Dr. Shazia</t>
+  </si>
+  <si>
+    <t>English Grade 9</t>
+  </si>
+  <si>
+    <t>https://www.studyresources.com.pk/cdn/shop/files/Class9Eng_1200x1200.jpg?v=1743765266</t>
+  </si>
+  <si>
+    <t>Aneela Naseer, Ammarah Awais, M. Azam</t>
   </si>
 </sst>
 </file>
@@ -25063,8 +25105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0026F645-8B82-445D-84B5-CAF19BF66F2F}">
   <dimension ref="A1:G2366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2222" workbookViewId="0">
-      <selection activeCell="H2237" sqref="H2237"/>
+    <sheetView tabSelected="1" topLeftCell="A2230" workbookViewId="0">
+      <selection activeCell="I2241" sqref="I2241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76571,54 +76613,138 @@
       </c>
     </row>
     <row r="2240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2240" s="2"/>
-    </row>
-    <row r="2241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2241" s="2"/>
-    </row>
-    <row r="2242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2242" s="2"/>
-    </row>
-    <row r="2243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2243" s="2"/>
-    </row>
-    <row r="2244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2244" s="2"/>
-    </row>
-    <row r="2245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2245" s="2"/>
-    </row>
-    <row r="2246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2240" s="2">
+        <v>2239</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>8060</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>8063</v>
+      </c>
+      <c r="D2240" t="s">
+        <v>8061</v>
+      </c>
+      <c r="E2240" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2240" t="s">
+        <v>8062</v>
+      </c>
+      <c r="G2240">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2241" s="2">
+        <v>2240</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>8064</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>8066</v>
+      </c>
+      <c r="D2241" t="s">
+        <v>8065</v>
+      </c>
+      <c r="E2241" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2241" t="s">
+        <v>8062</v>
+      </c>
+      <c r="G2241">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2242" s="2">
+        <v>2241</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>8067</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>8070</v>
+      </c>
+      <c r="D2242" t="s">
+        <v>8069</v>
+      </c>
+      <c r="E2242" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2242" t="s">
+        <v>8068</v>
+      </c>
+      <c r="G2242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2243" s="2">
+        <v>2242</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>8071</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>8073</v>
+      </c>
+      <c r="D2243" t="s">
+        <v>8072</v>
+      </c>
+      <c r="E2243" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2243" t="s">
+        <v>8068</v>
+      </c>
+      <c r="G2243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2244" s="2">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2245" s="2">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2246" s="2"/>
     </row>
-    <row r="2247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2247" s="2"/>
     </row>
-    <row r="2248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2248" s="2"/>
     </row>
-    <row r="2249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2249" s="2"/>
     </row>
-    <row r="2250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2250" s="2"/>
     </row>
-    <row r="2251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2251" s="2"/>
     </row>
-    <row r="2252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2252" s="2"/>
     </row>
-    <row r="2253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2253" s="2"/>
     </row>
-    <row r="2254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2254" s="2"/>
     </row>
-    <row r="2255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2255" s="2"/>
     </row>
-    <row r="2256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2256" s="2"/>
     </row>
     <row r="2257" spans="1:1" x14ac:dyDescent="0.25">

--- a/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
+++ b/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\new\Ehsas-Hub\ML Model\2nd Part Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62D557D-F4EA-4D43-B0ED-FEAC2CBAAA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3FC61D-00E0-44FF-9D62-5CF3812FBC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87AFE964-4F10-413A-9090-63B2B28B5407}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11213" uniqueCount="8074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11223" uniqueCount="8083">
   <si>
     <t>bookId</t>
   </si>
@@ -24242,6 +24242,33 @@
   </si>
   <si>
     <t>Aneela Naseer, Ammarah Awais, M. Azam</t>
+  </si>
+  <si>
+    <t>Islamiyat Grade 11</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>['Islamiyat']</t>
+  </si>
+  <si>
+    <t>https://ubooks.pk/media/catalog/product/cache/32e7d8850ce58e41e3089d035c491e46/i/s/islmat_11_nbf.jpg</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Muhammad Idrees, Dr. Muhammad Sajjad, Dr. Ali Tariq, Tanzila Naz</t>
+  </si>
+  <si>
+    <t>Math Grade 11</t>
+  </si>
+  <si>
+    <t>['Math']</t>
+  </si>
+  <si>
+    <t>https://studyplusplus.com/_next/image?url=%2F_next%2Fstatic%2Fmedia%2F11-maths.849fb8bd.jpg&amp;w=256&amp;q=75</t>
+  </si>
+  <si>
+    <t>Dr. Khalid Mehmood, Dr Saleem Ullah Satti, M Dabeer Mughal, Dr Naveed Akmal</t>
   </si>
 </sst>
 </file>
@@ -25105,8 +25132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0026F645-8B82-445D-84B5-CAF19BF66F2F}">
   <dimension ref="A1:G2366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2230" workbookViewId="0">
-      <selection activeCell="I2241" sqref="I2241"/>
+    <sheetView tabSelected="1" topLeftCell="A2236" workbookViewId="0">
+      <selection activeCell="D2251" sqref="D2251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76708,10 +76735,46 @@
       <c r="A2244" s="2">
         <v>2243</v>
       </c>
+      <c r="B2244" t="s">
+        <v>8074</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>8078</v>
+      </c>
+      <c r="D2244" t="s">
+        <v>8077</v>
+      </c>
+      <c r="E2244" t="s">
+        <v>8075</v>
+      </c>
+      <c r="F2244" t="s">
+        <v>8076</v>
+      </c>
+      <c r="G2244">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="2245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2245" s="2">
         <v>2244</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>8079</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>8082</v>
+      </c>
+      <c r="D2245" t="s">
+        <v>8081</v>
+      </c>
+      <c r="E2245" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2245" t="s">
+        <v>8080</v>
+      </c>
+      <c r="G2245">
+        <v>4.3</v>
       </c>
     </row>
     <row r="2246" spans="1:7" x14ac:dyDescent="0.25">

--- a/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
+++ b/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\new\Ehsas-Hub\ML Model\2nd Part Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3FC61D-00E0-44FF-9D62-5CF3812FBC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B7549D-7A81-44D5-8248-12492D5C590D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87AFE964-4F10-413A-9090-63B2B28B5407}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11223" uniqueCount="8083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11233" uniqueCount="8090">
   <si>
     <t>bookId</t>
   </si>
@@ -24269,6 +24269,27 @@
   </si>
   <si>
     <t>Dr. Khalid Mehmood, Dr Saleem Ullah Satti, M Dabeer Mughal, Dr Naveed Akmal</t>
+  </si>
+  <si>
+    <t>Math Grade 9</t>
+  </si>
+  <si>
+    <t>https://studyplusplus.com/_next/image?url=%2F_next%2Fstatic%2Fmedia%2F9-mathematics.cd82d090.jpg&amp;w=256&amp;q=75</t>
+  </si>
+  <si>
+    <t>Dr. Saleem Ullah Satti, Dr. Khalid Mehmood, Ms Nabeela Azad, Ms Hafsa Jabeen</t>
+  </si>
+  <si>
+    <t>Pak Studies Grade 9</t>
+  </si>
+  <si>
+    <t>https://studyplusplus.com/_next/image?url=%2F_next%2Fstatic%2Fmedia%2F9-pak-studies-urdu.583ca9b8.jpg&amp;w=3840&amp;q=75</t>
+  </si>
+  <si>
+    <t>['Pak Studies']</t>
+  </si>
+  <si>
+    <t>Dr. Kamran Naseem, Shamsa Mufti, Khadija Saleem, Hafsa Akhtar</t>
   </si>
 </sst>
 </file>
@@ -25133,7 +25154,7 @@
   <dimension ref="A1:G2366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2236" workbookViewId="0">
-      <selection activeCell="D2251" sqref="D2251"/>
+      <selection activeCell="C2248" sqref="C2248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76778,22 +76799,70 @@
       </c>
     </row>
     <row r="2246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2246" s="2"/>
+      <c r="A2246" s="2">
+        <v>2245</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>8083</v>
+      </c>
+      <c r="C2246" t="s">
+        <v>8085</v>
+      </c>
+      <c r="D2246" t="s">
+        <v>8084</v>
+      </c>
+      <c r="E2246" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2246" t="s">
+        <v>8080</v>
+      </c>
+      <c r="G2246">
+        <v>4</v>
+      </c>
     </row>
     <row r="2247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2247" s="2"/>
+      <c r="A2247" s="2">
+        <v>2246</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>8086</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>8089</v>
+      </c>
+      <c r="D2247" t="s">
+        <v>8087</v>
+      </c>
+      <c r="E2247" t="s">
+        <v>8075</v>
+      </c>
+      <c r="F2247" t="s">
+        <v>8088</v>
+      </c>
+      <c r="G2247">
+        <v>4</v>
+      </c>
     </row>
     <row r="2248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2248" s="2"/>
+      <c r="A2248" s="2">
+        <v>2247</v>
+      </c>
     </row>
     <row r="2249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2249" s="2"/>
+      <c r="A2249" s="2">
+        <v>2248</v>
+      </c>
     </row>
     <row r="2250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2250" s="2"/>
+      <c r="A2250" s="2">
+        <v>2249</v>
+      </c>
     </row>
     <row r="2251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2251" s="2"/>
+      <c r="A2251" s="2">
+        <v>2250</v>
+      </c>
     </row>
     <row r="2252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2252" s="2"/>

--- a/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
+++ b/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\new\Ehsas-Hub\ML Model\2nd Part Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B7549D-7A81-44D5-8248-12492D5C590D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704F8CB-2FC0-4A8E-B107-47282D1CF7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87AFE964-4F10-413A-9090-63B2B28B5407}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11233" uniqueCount="8090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11253" uniqueCount="8103">
   <si>
     <t>bookId</t>
   </si>
@@ -24290,6 +24290,45 @@
   </si>
   <si>
     <t>Dr. Kamran Naseem, Shamsa Mufti, Khadija Saleem, Hafsa Akhtar</t>
+  </si>
+  <si>
+    <t>Graphic Designing Grade 10</t>
+  </si>
+  <si>
+    <t>https://website-assets.studocu.com/img/document_thumbnails/4f2d42f3cb8c3e97f110e35822d48869/thumb_300_386.png</t>
+  </si>
+  <si>
+    <t>['Graphic Designing']</t>
+  </si>
+  <si>
+    <t>Dr. Faisal Riaz</t>
+  </si>
+  <si>
+    <t>Math Grade 1</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQbRTBwOnvCBfrBWOkO316yUkUIg2lPbOBczA&amp;s</t>
+  </si>
+  <si>
+    <t>Dr Saleem Ullah, Dr. Khalid Mehmood, Sadia Jabeen</t>
+  </si>
+  <si>
+    <t>Math Grade 2</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSBpEavpMP3jgdFt9qtVbi1zu6T-GY52LVOVg&amp;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Saleem Ullah, Dr. Khalid Mehmood, Dr Shahzad Ahmad, Kalid Ahmad </t>
+  </si>
+  <si>
+    <t>Math Grade 3</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRMu3XNw6izSpxofXIQFC6RIrMsOxxsv9CZlA&amp;s</t>
+  </si>
+  <si>
+    <t>Siddiqua Maqsood, Prof. Abdul Khaliq Bughlani, Prof, Muhammad Asif Bhatti</t>
   </si>
 </sst>
 </file>
@@ -25154,7 +25193,7 @@
   <dimension ref="A1:G2366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2236" workbookViewId="0">
-      <selection activeCell="C2248" sqref="C2248"/>
+      <selection activeCell="D2253" sqref="D2253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76848,20 +76887,92 @@
       <c r="A2248" s="2">
         <v>2247</v>
       </c>
+      <c r="B2248" t="s">
+        <v>8090</v>
+      </c>
+      <c r="C2248" t="s">
+        <v>8093</v>
+      </c>
+      <c r="D2248" t="s">
+        <v>8091</v>
+      </c>
+      <c r="E2248" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2248" t="s">
+        <v>8092</v>
+      </c>
+      <c r="G2248">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="2249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2249" s="2">
         <v>2248</v>
       </c>
+      <c r="B2249" t="s">
+        <v>8094</v>
+      </c>
+      <c r="C2249" t="s">
+        <v>8096</v>
+      </c>
+      <c r="D2249" t="s">
+        <v>8095</v>
+      </c>
+      <c r="E2249" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2249" t="s">
+        <v>8080</v>
+      </c>
+      <c r="G2249">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="2250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2250" s="2">
         <v>2249</v>
       </c>
+      <c r="B2250" t="s">
+        <v>8097</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>8099</v>
+      </c>
+      <c r="D2250" t="s">
+        <v>8098</v>
+      </c>
+      <c r="E2250" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2250" t="s">
+        <v>8080</v>
+      </c>
+      <c r="G2250">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="2251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2251" s="2">
         <v>2250</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>8100</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>8102</v>
+      </c>
+      <c r="D2251" t="s">
+        <v>8101</v>
+      </c>
+      <c r="E2251" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2251" t="s">
+        <v>8080</v>
+      </c>
+      <c r="G2251">
+        <v>3.9</v>
       </c>
     </row>
     <row r="2252" spans="1:7" x14ac:dyDescent="0.25">

--- a/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
+++ b/ML Model/2nd Part Dataset/Updated_Book_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\new\Ehsas-Hub\ML Model\2nd Part Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704F8CB-2FC0-4A8E-B107-47282D1CF7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDAE25F-DF7A-4FBD-BEDB-0B6999421BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87AFE964-4F10-413A-9090-63B2B28B5407}"/>
   </bookViews>
@@ -25192,8 +25192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0026F645-8B82-445D-84B5-CAF19BF66F2F}">
   <dimension ref="A1:G2366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2236" workbookViewId="0">
-      <selection activeCell="D2253" sqref="D2253"/>
+    <sheetView tabSelected="1" topLeftCell="A2217" workbookViewId="0">
+      <selection activeCell="G2256" sqref="G2256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76972,7 +76972,7 @@
         <v>8080</v>
       </c>
       <c r="G2251">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="2252" spans="1:7" x14ac:dyDescent="0.25">
